--- a/DATA/library.xlsx
+++ b/DATA/library.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="articles" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="1153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="1159">
   <si>
     <t>author</t>
   </si>
@@ -63,9 +63,6 @@
     <t>city</t>
   </si>
   <si>
-    <t>isbn</t>
-  </si>
-  <si>
     <t>javh_2017</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
     <t>89-99</t>
   </si>
   <si>
-    <t>Academic Press</t>
-  </si>
-  <si>
     <t>{The subpixel resolution of optical-flow-based modal analysis}</t>
   </si>
   <si>
@@ -234,9 +228,6 @@
     <t>012064</t>
   </si>
   <si>
-    <t>Institute of Physics Publishing</t>
-  </si>
-  <si>
     <t>{High speed image correlation for vibration analysis}</t>
   </si>
   <si>
@@ -960,9 +951,6 @@
     <t>Proceedings of ISMA 23</t>
   </si>
   <si>
-    <t>16-18</t>
-  </si>
-  <si>
     <t>{Frequency domain maximum likelihood identification of modal parameters with confidence intervals}</t>
   </si>
   <si>
@@ -1230,9 +1218,6 @@
     <t>110-116</t>
   </si>
   <si>
-    <t>{Correlation Coefficient For Modal Vector Analysis.}</t>
-  </si>
-  <si>
     <t>1982</t>
   </si>
   <si>
@@ -2202,9 +2187,6 @@
     <t>1161-1181</t>
   </si>
   <si>
-    <t>Springer New York LLC</t>
-  </si>
-  <si>
     <t>{A Review of Speckle Pattern Fabrication and Assessment for Digital Image Correlation}</t>
   </si>
   <si>
@@ -2466,9 +2448,6 @@
     <t>wadhwa2014</t>
   </si>
   <si>
-    <t>IEEE International Conference on Computational Photography</t>
-  </si>
-  <si>
     <t>{Riesz Pyramids for Fast Phase-Based Video Magnification}</t>
   </si>
   <si>
@@ -2490,9 +2469,6 @@
     <t>pan_2006</t>
   </si>
   <si>
-    <t>1615-1621</t>
-  </si>
-  <si>
     <t>{Performance of sub-pixel registration algorithms in digital image correlation}</t>
   </si>
   <si>
@@ -2517,21 +2493,12 @@
     <t>Computational Imaging VII</t>
   </si>
   <si>
-    <t>72460X</t>
-  </si>
-  <si>
     <t>{Comparison of subpixel image registration algorithms}</t>
   </si>
   <si>
     <t>10.1117/12.810369</t>
   </si>
   <si>
-    <t>SPIE</t>
-  </si>
-  <si>
-    <t>7246</t>
-  </si>
-  <si>
     <t>seitz_2006</t>
   </si>
   <si>
@@ -2604,9 +2571,6 @@
     <t>10.1109/iccv.1993.378241</t>
   </si>
   <si>
-    <t>Publ by IEEE</t>
-  </si>
-  <si>
     <t>sarrafi_2017</t>
   </si>
   <si>
@@ -2622,9 +2586,6 @@
     <t>10.1007/978-3-319-54858-6_29</t>
   </si>
   <si>
-    <t>3 Part F2</t>
-  </si>
-  <si>
     <t>agarwal_2009</t>
   </si>
   <si>
@@ -2640,9 +2601,6 @@
     <t>10.1109/ICCV.2009.5459148</t>
   </si>
   <si>
-    <t>IEEE</t>
-  </si>
-  <si>
     <t>2009 IEEE 12th International Conference on Computer Vision</t>
   </si>
   <si>
@@ -2670,9 +2628,6 @@
     <t>10.1145/3458305.3478443</t>
   </si>
   <si>
-    <t>Association for Computing Machinery (ACM)</t>
-  </si>
-  <si>
     <t>ACM Multimedia Systems Conference</t>
   </si>
   <si>
@@ -2754,9 +2709,6 @@
     <t>10.5244/C.27.13</t>
   </si>
   <si>
-    <t>British Machine Vision Association, BMVA</t>
-  </si>
-  <si>
     <t>BMVC 2013 - Electronic Proceedings of the British Machine Vision Conference 2013</t>
   </si>
   <si>
@@ -2799,33 +2751,15 @@
     <t>gonzalez_2018</t>
   </si>
   <si>
-    <t>Rafael C. Gonzalez and Richard E. (Richard Eugene) Woods</t>
-  </si>
-  <si>
-    <t>Harlow</t>
-  </si>
-  <si>
-    <t>9780133356724</t>
-  </si>
-  <si>
     <t>Pearson Education Limited</t>
   </si>
   <si>
     <t>{Digital Image Processing}</t>
   </si>
   <si>
-    <t>book</t>
-  </si>
-  <si>
     <t>maia_1997</t>
   </si>
   <si>
-    <t>Nuno Manuel Mendes Maia and Julio Martins Montalvao Silva</t>
-  </si>
-  <si>
-    <t>Baldock, United Kingdom</t>
-  </si>
-  <si>
     <t>Research Studies Press</t>
   </si>
   <si>
@@ -2835,57 +2769,27 @@
     <t>deberg_2008</t>
   </si>
   <si>
-    <t>Mark De Berg and Otfried Cheong and Marc Van Kreveld and Mark Overmars</t>
-  </si>
-  <si>
-    <t>9783540779735</t>
-  </si>
-  <si>
     <t>Springer Berlin Heidelberg</t>
   </si>
   <si>
     <t>{Computational geometry: Algorithms and applications}</t>
   </si>
   <si>
-    <t>10.1007/978-3-540-77974-2</t>
-  </si>
-  <si>
-    <t>Computational Geometry: Algorithms and Applications</t>
-  </si>
-  <si>
-    <t>1-386</t>
-  </si>
-  <si>
     <t>friswell_1995</t>
   </si>
   <si>
     <t>M. I. Friswell and J. E. Mottershead</t>
   </si>
   <si>
-    <t>Dordrecht</t>
-  </si>
-  <si>
-    <t>978-90-481-4535-5</t>
-  </si>
-  <si>
     <t>Springer Netherlands</t>
   </si>
   <si>
     <t>{Finite Element Model Updating in Structural Dynamics}</t>
   </si>
   <si>
-    <t>10.1007/978-94-015-8508-8</t>
-  </si>
-  <si>
     <t>kailath_1980</t>
   </si>
   <si>
-    <t>Thomas Kailath</t>
-  </si>
-  <si>
-    <t>Englewood Cliffs, N.J.</t>
-  </si>
-  <si>
     <t>1.</t>
   </si>
   <si>
@@ -2898,15 +2802,6 @@
     <t>szeliski_2010</t>
   </si>
   <si>
-    <t>Richard Szeliski</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>978-1-84882-935-0</t>
-  </si>
-  <si>
     <t>Springer London</t>
   </si>
   <si>
@@ -2916,12 +2811,6 @@
     <t>pharr_2016</t>
   </si>
   <si>
-    <t>Matt Pharr and Wenzel Jakob and Greg Humphreys</t>
-  </si>
-  <si>
-    <t>978-0-12-800645-0</t>
-  </si>
-  <si>
     <t>Elsevier Inc.</t>
   </si>
   <si>
@@ -2931,12 +2820,6 @@
     <t>sutton_2009</t>
   </si>
   <si>
-    <t>Michael A. Sutton and Jean-José Orteu and Hubert W. Schreier</t>
-  </si>
-  <si>
-    <t>978-0-387-78747-3</t>
-  </si>
-  <si>
     <t>Springer New York, NY</t>
   </si>
   <si>
@@ -2946,9 +2829,6 @@
     <t>howpublished</t>
   </si>
   <si>
-    <t>commit</t>
-  </si>
-  <si>
     <t>editor</t>
   </si>
   <si>
@@ -2973,9 +2853,6 @@
     <t>\url{https://github.com/rxian/phase-video}</t>
   </si>
   <si>
-    <t>09d3db1</t>
-  </si>
-  <si>
     <t>misc</t>
   </si>
   <si>
@@ -3481,6 +3358,147 @@
   </si>
   <si>
     <t>tomac_2023_2</t>
+  </si>
+  <si>
+    <t>10.1109/ICCPHOT.2014.6831820</t>
+  </si>
+  <si>
+    <t>IEEE International Conference on Computational Photography (ICCP)</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro, Brazil</t>
+  </si>
+  <si>
+    <t>10.17501</t>
+  </si>
+  <si>
+    <t>Oxford, UK</t>
+  </si>
+  <si>
+    <t>San Jose, CA, USA</t>
+  </si>
+  <si>
+    <t>Santa Clara, CA, USA</t>
+  </si>
+  <si>
+    <t>10.1109/CVPR.2006.19</t>
+  </si>
+  <si>
+    <t>New York, NY, USA</t>
+  </si>
+  <si>
+    <t>Seattle, WA, USA</t>
+  </si>
+  <si>
+    <t>10.1109/CVPR.2016.445</t>
+  </si>
+  <si>
+    <t>Las Vegas, NV, USA</t>
+  </si>
+  <si>
+    <t>Pasadena, CA, USA</t>
+  </si>
+  <si>
+    <t>Berlin, Germany</t>
+  </si>
+  <si>
+    <t>Kyoto, Japan</t>
+  </si>
+  <si>
+    <t>Columbus, OH, USA</t>
+  </si>
+  <si>
+    <t>Istanbul, Turkey</t>
+  </si>
+  <si>
+    <t>Boston, MA, USA</t>
+  </si>
+  <si>
+    <t>San Antonio, TX, USA</t>
+  </si>
+  <si>
+    <t>San Diego, CA, USA</t>
+  </si>
+  <si>
+    <t>Bristol, UK</t>
+  </si>
+  <si>
+    <t>Hangzhou, China</t>
+  </si>
+  <si>
+    <t>Kerkyra, Greece</t>
+  </si>
+  <si>
+    <t>Ancona, Italy</t>
+  </si>
+  <si>
+    <t>10.1007/978-94-011-4503-9_14</t>
+  </si>
+  <si>
+    <t>{Correlation Coefficient For Modal Vector Analysis}</t>
+  </si>
+  <si>
+    <t>Orlando, FL, USA</t>
+  </si>
+  <si>
+    <t>Vancouver, B.C., Canada</t>
+  </si>
+  <si>
+    <t>10.1145/220279.220286</t>
+  </si>
+  <si>
+    <t>359-366</t>
+  </si>
+  <si>
+    <t>Lueven, Belgium</t>
+  </si>
+  <si>
+    <t>239-267</t>
+  </si>
+  <si>
+    <t>Dearborn, MI, USA</t>
+  </si>
+  <si>
+    <t>Kissimmee, FL, USA</t>
+  </si>
+  <si>
+    <t>R. C. Gonzalez and R. E. Woods</t>
+  </si>
+  <si>
+    <t>N. M. M. Maia and J. M. M. Silva</t>
+  </si>
+  <si>
+    <t>M. De Berg and O. Cheong and M. Van Kreveld and M. Overmars</t>
+  </si>
+  <si>
+    <t>T. Kailath</t>
+  </si>
+  <si>
+    <t>R. Szeliski</t>
+  </si>
+  <si>
+    <t>M. Pharr and W. Jakob and G. Humphreys</t>
+  </si>
+  <si>
+    <t>M. A. Sutton and J.-J. Orteu and H. W. Schreier</t>
+  </si>
+  <si>
+    <t>Baldock, UK</t>
+  </si>
+  <si>
+    <t>Harlow, UK</t>
+  </si>
+  <si>
+    <t>Dordrecht, Netherlands</t>
+  </si>
+  <si>
+    <t>Englewood Cliffs, N.J., USA</t>
+  </si>
+  <si>
+    <t>London, UK</t>
+  </si>
+  <si>
+    <t>Amsterdam, Netherlands</t>
   </si>
 </sst>
 </file>
@@ -3508,18 +3526,12 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -3549,17 +3561,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3568,6 +3575,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Navadno" xfId="0" builtinId="0"/>
@@ -3870,10 +3878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I141"/>
+  <dimension ref="A1:I142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView topLeftCell="A88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F149" sqref="F149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3913,3859 +3921,3888 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>977</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
         <v>20</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>1018</v>
+        <v>977</v>
       </c>
       <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>27</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>977</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>978</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
         <v>37</v>
       </c>
-      <c r="B5" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>979</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
         <v>45</v>
       </c>
-      <c r="B6" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>49</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>980</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
         <v>52</v>
       </c>
-      <c r="B7" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="E7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="G7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>56</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>981</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B8" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
         <v>60</v>
       </c>
-      <c r="D8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="G8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="I8" t="s">
         <v>63</v>
-      </c>
-      <c r="H8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
+        <v>982</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" t="s">
         <v>66</v>
       </c>
-      <c r="B9" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="E9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="G9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" t="s">
         <v>71</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I9" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
+        <v>983</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>961</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B10" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="H10" t="s">
         <v>76</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>1131</v>
-      </c>
-      <c r="F10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B11" t="s">
+      <c r="F11" t="s">
         <v>81</v>
       </c>
-      <c r="C11" t="s">
+      <c r="G11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>1025</v>
+        <v>984</v>
       </c>
       <c r="C12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="2">
+        <v>8351</v>
+      </c>
+      <c r="F12" t="s">
         <v>87</v>
       </c>
-      <c r="D12" t="s">
+      <c r="G12" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="4">
-        <v>8351</v>
-      </c>
-      <c r="F12" t="s">
-        <v>90</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="H12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B13" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="F13" t="s">
         <v>94</v>
       </c>
-      <c r="D13" t="s">
+      <c r="G13" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="H13" t="s">
         <v>96</v>
       </c>
-      <c r="F13" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H13" t="s">
-        <v>99</v>
-      </c>
       <c r="I13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" t="s">
         <v>100</v>
       </c>
-      <c r="B14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="E14" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>107</v>
+      <c r="G14" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="H14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" t="s">
+        <v>986</v>
+      </c>
+      <c r="C15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B15" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="F15" t="s">
         <v>109</v>
       </c>
-      <c r="D15" t="s">
+      <c r="G15" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="H15" t="s">
         <v>111</v>
       </c>
-      <c r="F15" t="s">
+      <c r="I15" t="s">
         <v>112</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="H15" t="s">
-        <v>114</v>
-      </c>
-      <c r="I15" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" t="s">
+        <v>987</v>
+      </c>
+      <c r="C16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="2">
+        <v>105907</v>
+      </c>
+      <c r="F16" t="s">
         <v>116</v>
       </c>
-      <c r="B16" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="G16" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D16" t="s">
+      <c r="H16" t="s">
         <v>118</v>
-      </c>
-      <c r="E16" s="4">
-        <v>105907</v>
-      </c>
-      <c r="F16" t="s">
-        <v>119</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H16" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" t="s">
+        <v>988</v>
+      </c>
+      <c r="C17" t="s">
+        <v>959</v>
+      </c>
+      <c r="D17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" t="s">
         <v>122</v>
       </c>
-      <c r="B17" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="G17" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="H17" t="s">
         <v>124</v>
       </c>
-      <c r="F17" t="s">
-        <v>125</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H17" t="s">
-        <v>127</v>
-      </c>
       <c r="I17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>989</v>
+      </c>
+      <c r="C18" t="s">
+        <v>960</v>
+      </c>
+      <c r="D18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" t="s">
         <v>128</v>
       </c>
-      <c r="B18" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="G18" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F18" t="s">
-        <v>131</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="H18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" t="s">
+        <v>990</v>
+      </c>
+      <c r="C19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" t="s">
         <v>133</v>
       </c>
-      <c r="B19" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="G19" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F19" t="s">
-        <v>136</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="H19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" t="s">
         <v>138</v>
       </c>
-      <c r="B20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="E20" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>141</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="G20" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H20" t="s">
         <v>143</v>
       </c>
-      <c r="F20" t="s">
-        <v>144</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="H20" t="s">
-        <v>146</v>
-      </c>
       <c r="I20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" t="s">
+        <v>991</v>
+      </c>
+      <c r="C21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="2">
+        <v>62001</v>
+      </c>
+      <c r="F21" t="s">
         <v>147</v>
       </c>
-      <c r="B21" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="G21" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D21" t="s">
-        <v>149</v>
-      </c>
-      <c r="E21" s="4">
-        <v>62001</v>
-      </c>
-      <c r="F21" t="s">
-        <v>150</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>151</v>
-      </c>
       <c r="H21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" t="s">
+        <v>992</v>
+      </c>
+      <c r="C22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B22" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="F22" t="s">
         <v>153</v>
       </c>
-      <c r="D22" t="s">
+      <c r="G22" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="H22" t="s">
         <v>155</v>
       </c>
-      <c r="F22" t="s">
-        <v>156</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="H22" t="s">
-        <v>158</v>
-      </c>
       <c r="I22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" t="s">
+        <v>993</v>
+      </c>
+      <c r="C23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" t="s">
         <v>159</v>
       </c>
-      <c r="B23" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C23" t="s">
-        <v>160</v>
-      </c>
-      <c r="D23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F23" t="s">
-        <v>162</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>50</v>
+      <c r="G23" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="H23" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B24" t="s">
+        <v>994</v>
+      </c>
+      <c r="C24" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" t="s">
         <v>163</v>
       </c>
-      <c r="B24" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="G24" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="4" t="s">
+      <c r="H24" t="s">
         <v>165</v>
-      </c>
-      <c r="F24" t="s">
-        <v>166</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="H24" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" t="s">
         <v>169</v>
       </c>
-      <c r="B25" t="s">
+      <c r="E25" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C25" t="s">
+      <c r="F25" t="s">
         <v>171</v>
       </c>
-      <c r="D25" t="s">
+      <c r="G25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25" t="s">
         <v>172</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F25" t="s">
-        <v>174</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H25" t="s">
-        <v>175</v>
-      </c>
       <c r="I25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26" t="s">
+        <v>996</v>
+      </c>
+      <c r="C26" t="s">
+        <v>179</v>
+      </c>
+      <c r="D26" t="s">
+        <v>180</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B26" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="F26" t="s">
         <v>182</v>
       </c>
-      <c r="D26" t="s">
-        <v>183</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F26" t="s">
-        <v>185</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>113</v>
+      <c r="G26" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="H26" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B27" t="s">
+        <v>997</v>
+      </c>
+      <c r="C27" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" t="s">
         <v>186</v>
       </c>
-      <c r="B27" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C27" t="s">
-        <v>187</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="G27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" t="s">
+        <v>143</v>
+      </c>
+      <c r="I27" t="s">
         <v>16</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F27" t="s">
-        <v>189</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" t="s">
-        <v>146</v>
-      </c>
-      <c r="I27" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B28" t="s">
+        <v>998</v>
+      </c>
+      <c r="C28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F28" t="s">
         <v>190</v>
       </c>
-      <c r="B28" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="G28" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="4" t="s">
+      <c r="H28" t="s">
         <v>192</v>
-      </c>
-      <c r="F28" t="s">
-        <v>193</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H28" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B29" t="s">
+        <v>999</v>
+      </c>
+      <c r="C29" t="s">
+        <v>194</v>
+      </c>
+      <c r="D29" t="s">
+        <v>195</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2312</v>
+      </c>
+      <c r="F29" t="s">
         <v>196</v>
       </c>
-      <c r="B29" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="G29" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D29" t="s">
-        <v>198</v>
-      </c>
-      <c r="E29" s="4">
-        <v>2312</v>
-      </c>
-      <c r="F29" t="s">
-        <v>199</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>200</v>
-      </c>
       <c r="H29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C30" t="s">
+        <v>962</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F30" t="s">
+        <v>200</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H30" t="s">
         <v>201</v>
       </c>
-      <c r="B30" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="F30" t="s">
-        <v>203</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H30" t="s">
-        <v>204</v>
-      </c>
       <c r="I30" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B31" t="s">
+        <v>203</v>
+      </c>
+      <c r="C31" t="s">
+        <v>204</v>
+      </c>
+      <c r="D31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B31" t="s">
+      <c r="F31" t="s">
         <v>206</v>
       </c>
-      <c r="C31" t="s">
+      <c r="G31" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="4" t="s">
+      <c r="H31" t="s">
         <v>208</v>
       </c>
-      <c r="F31" t="s">
-        <v>209</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="H31" t="s">
-        <v>211</v>
-      </c>
       <c r="I31" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B32" t="s">
+        <v>210</v>
+      </c>
+      <c r="D32" t="s">
+        <v>211</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B32" t="s">
+      <c r="F32" t="s">
+        <v>963</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D32" t="s">
-        <v>214</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1004</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>216</v>
-      </c>
       <c r="H32" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I32" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B33" t="s">
+        <v>215</v>
+      </c>
+      <c r="C33" t="s">
+        <v>216</v>
+      </c>
+      <c r="D33" t="s">
         <v>217</v>
       </c>
-      <c r="B33" t="s">
+      <c r="E33" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C33" t="s">
+      <c r="F33" t="s">
         <v>219</v>
       </c>
-      <c r="D33" t="s">
+      <c r="G33" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="F33" t="s">
-        <v>222</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>223</v>
-      </c>
       <c r="H33" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B34" t="s">
-        <v>1042</v>
+        <v>1001</v>
       </c>
       <c r="C34" t="s">
-        <v>1005</v>
+        <v>964</v>
       </c>
       <c r="D34" t="s">
-        <v>172</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>1132</v>
+        <v>169</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>1091</v>
       </c>
       <c r="F34" t="s">
-        <v>225</v>
-      </c>
-      <c r="G34" s="4">
+        <v>222</v>
+      </c>
+      <c r="G34" s="2">
         <v>60</v>
       </c>
       <c r="H34" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C35" t="s">
+        <v>225</v>
+      </c>
+      <c r="D35" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F35" t="s">
         <v>227</v>
       </c>
-      <c r="B35" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="G35" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D35" t="s">
-        <v>118</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F35" t="s">
-        <v>230</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>231</v>
-      </c>
       <c r="H35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B36" t="s">
+        <v>230</v>
+      </c>
+      <c r="C36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D36" t="s">
         <v>232</v>
       </c>
-      <c r="B36" t="s">
+      <c r="E36" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C36" t="s">
+      <c r="F36" t="s">
         <v>234</v>
       </c>
-      <c r="D36" t="s">
-        <v>235</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="F36" t="s">
-        <v>237</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>74</v>
+      <c r="G36" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="H36" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C37" t="s">
+        <v>236</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F37" t="s">
         <v>238</v>
       </c>
-      <c r="B37" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="G37" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D37" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="F37" t="s">
-        <v>241</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>242</v>
-      </c>
       <c r="H37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C38" t="s">
+        <v>241</v>
+      </c>
+      <c r="D38" t="s">
+        <v>242</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B38" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="F38" t="s">
         <v>244</v>
       </c>
-      <c r="D38" t="s">
+      <c r="G38" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="F38" t="s">
-        <v>247</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>248</v>
-      </c>
       <c r="H38" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B39" t="s">
+        <v>247</v>
+      </c>
+      <c r="C39" t="s">
+        <v>248</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B39" t="s">
+      <c r="F39" t="s">
         <v>250</v>
       </c>
-      <c r="C39" t="s">
+      <c r="G39" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D39" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" s="4" t="s">
+      <c r="H39" t="s">
         <v>252</v>
-      </c>
-      <c r="F39" t="s">
-        <v>253</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="H39" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B40" t="s">
+        <v>965</v>
+      </c>
+      <c r="C40" t="s">
+        <v>966</v>
+      </c>
+      <c r="D40" t="s">
+        <v>254</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F40" t="s">
         <v>256</v>
       </c>
-      <c r="B40" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="G40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" t="s">
         <v>257</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="F40" t="s">
-        <v>259</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H40" t="s">
-        <v>260</v>
-      </c>
       <c r="I40" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B41" t="s">
+        <v>259</v>
+      </c>
+      <c r="C41" t="s">
+        <v>260</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="2">
+        <v>106536</v>
+      </c>
+      <c r="F41" t="s">
         <v>261</v>
       </c>
-      <c r="B41" t="s">
+      <c r="G41" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C41" t="s">
+      <c r="H41" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B42" t="s">
+        <v>967</v>
+      </c>
+      <c r="C42" t="s">
+        <v>968</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="2">
+        <v>110686</v>
+      </c>
+      <c r="F42" t="s">
         <v>263</v>
       </c>
-      <c r="D41" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" s="4">
-        <v>106536</v>
-      </c>
-      <c r="F41" t="s">
-        <v>264</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="H41" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D42" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" s="4">
-        <v>110686</v>
-      </c>
-      <c r="F42" t="s">
-        <v>266</v>
-      </c>
-      <c r="G42" s="4">
+      <c r="G42" s="2">
         <v>202</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H42" s="2">
         <v>2023</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B43" t="s">
+        <v>265</v>
+      </c>
+      <c r="C43" t="s">
+        <v>969</v>
+      </c>
+      <c r="D43" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F43" t="s">
         <v>267</v>
       </c>
-      <c r="B43" t="s">
+      <c r="G43" s="2">
+        <v>41</v>
+      </c>
+      <c r="H43" t="s">
         <v>268</v>
       </c>
-      <c r="C43" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D43" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="F43" t="s">
-        <v>270</v>
-      </c>
-      <c r="G43" s="4">
-        <v>41</v>
-      </c>
-      <c r="H43" t="s">
-        <v>271</v>
-      </c>
       <c r="I43" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C44" t="s">
+        <v>274</v>
+      </c>
+      <c r="D44" t="s">
+        <v>275</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F44" t="s">
         <v>276</v>
       </c>
-      <c r="B44" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C44" t="s">
-        <v>277</v>
-      </c>
-      <c r="D44" t="s">
-        <v>278</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>1133</v>
-      </c>
-      <c r="F44" t="s">
-        <v>279</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>58</v>
+      <c r="G44" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="H44" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B45" t="s">
+        <v>977</v>
+      </c>
+      <c r="C45" t="s">
+        <v>278</v>
+      </c>
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F45" t="s">
         <v>280</v>
       </c>
-      <c r="B45" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="G45" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D45" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="F45" t="s">
-        <v>283</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>284</v>
-      </c>
       <c r="H45" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C46" t="s">
+        <v>283</v>
+      </c>
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F46" t="s">
         <v>285</v>
       </c>
-      <c r="B46" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C46" t="s">
-        <v>286</v>
-      </c>
-      <c r="D46" t="s">
-        <v>16</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="F46" t="s">
-        <v>288</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>50</v>
+      <c r="G46" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="H46" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I46" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C47" t="s">
+        <v>287</v>
+      </c>
+      <c r="D47" t="s">
+        <v>288</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B47" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="F47" t="s">
         <v>290</v>
       </c>
-      <c r="D47" t="s">
+      <c r="G47" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="F47" t="s">
-        <v>293</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>294</v>
-      </c>
       <c r="H47" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I47" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B48" t="s">
+        <v>293</v>
+      </c>
+      <c r="C48" t="s">
+        <v>970</v>
+      </c>
+      <c r="D48" t="s">
+        <v>294</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B48" t="s">
+      <c r="F48" t="s">
         <v>296</v>
       </c>
-      <c r="C48" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="G48" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H48" t="s">
         <v>297</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="F48" t="s">
-        <v>299</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H48" t="s">
-        <v>300</v>
-      </c>
       <c r="I48" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C49" t="s">
+        <v>971</v>
+      </c>
+      <c r="D49" t="s">
+        <v>303</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F49" t="s">
         <v>305</v>
       </c>
-      <c r="B49" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="G49" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H49" t="s">
         <v>306</v>
       </c>
-      <c r="E49" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="F49" t="s">
-        <v>308</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H49" t="s">
-        <v>309</v>
-      </c>
       <c r="I49" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D50" t="s">
+        <v>311</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F50" t="s">
+        <v>313</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" t="s">
         <v>314</v>
       </c>
-      <c r="B50" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D50" t="s">
-        <v>315</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="F50" t="s">
-        <v>317</v>
-      </c>
-      <c r="G50" s="4"/>
-      <c r="H50" t="s">
-        <v>318</v>
-      </c>
       <c r="I50" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B51" t="s">
-        <v>1054</v>
+        <v>1013</v>
       </c>
       <c r="C51" t="s">
-        <v>1013</v>
+        <v>972</v>
       </c>
       <c r="D51" t="s">
-        <v>320</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>321</v>
+        <v>316</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="F51" t="s">
-        <v>322</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>142</v>
+        <v>318</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="H51" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C52" t="s">
+        <v>320</v>
+      </c>
+      <c r="D52" t="s">
+        <v>321</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F52" t="s">
         <v>323</v>
       </c>
-      <c r="B52" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="G52" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D52" t="s">
+      <c r="H52" t="s">
+        <v>62</v>
+      </c>
+      <c r="I52" t="s">
         <v>325</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="F52" t="s">
-        <v>327</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="H52" t="s">
-        <v>64</v>
-      </c>
-      <c r="I52" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B53" t="s">
-        <v>1056</v>
+        <v>1015</v>
       </c>
       <c r="C53" t="s">
-        <v>995</v>
+        <v>954</v>
       </c>
       <c r="D53" t="s">
-        <v>47</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>331</v>
+        <v>45</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="F53" t="s">
-        <v>332</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>104</v>
+        <v>328</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="H53" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="I53" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C54" t="s">
+        <v>973</v>
+      </c>
+      <c r="D54" t="s">
+        <v>331</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F54" t="s">
+        <v>333</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H54" t="s">
         <v>334</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C54" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D54" t="s">
-        <v>335</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="F54" t="s">
-        <v>337</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H54" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C55" t="s">
+        <v>974</v>
+      </c>
+      <c r="D55" t="s">
+        <v>336</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="F55" t="s">
+        <v>338</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H55" t="s">
         <v>339</v>
       </c>
-      <c r="B55" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D55" t="s">
-        <v>340</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="F55" t="s">
-        <v>342</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H55" t="s">
-        <v>343</v>
-      </c>
       <c r="I55" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B56" t="s">
+        <v>341</v>
+      </c>
+      <c r="C56" t="s">
+        <v>342</v>
+      </c>
+      <c r="D56" t="s">
+        <v>343</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B56" t="s">
+      <c r="F56" t="s">
         <v>345</v>
       </c>
-      <c r="C56" t="s">
+      <c r="G56" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D56" t="s">
+      <c r="H56" t="s">
+        <v>272</v>
+      </c>
+      <c r="I56" t="s">
         <v>347</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="F56" t="s">
-        <v>349</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="H56" t="s">
-        <v>275</v>
-      </c>
-      <c r="I56" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C57" t="s">
+        <v>975</v>
+      </c>
+      <c r="D57" t="s">
+        <v>349</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F57" t="s">
+        <v>351</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H57" t="s">
         <v>352</v>
       </c>
-      <c r="B57" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C57" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D57" t="s">
-        <v>353</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="F57" t="s">
-        <v>355</v>
-      </c>
-      <c r="G57" s="4" t="s">
+      <c r="I57" t="s">
         <v>63</v>
-      </c>
-      <c r="H57" t="s">
-        <v>356</v>
-      </c>
-      <c r="I57" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C58" t="s">
+        <v>354</v>
+      </c>
+      <c r="D58" t="s">
+        <v>275</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F58" t="s">
+        <v>356</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H58" t="s">
+        <v>223</v>
+      </c>
+      <c r="I58" t="s">
         <v>357</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C58" t="s">
-        <v>358</v>
-      </c>
-      <c r="D58" t="s">
-        <v>278</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="F58" t="s">
-        <v>360</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H58" t="s">
-        <v>226</v>
-      </c>
-      <c r="I58" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C59" t="s">
+        <v>366</v>
+      </c>
+      <c r="D59" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F59" t="s">
+        <v>368</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B59" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C59" t="s">
-        <v>370</v>
-      </c>
-      <c r="D59" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="F59" t="s">
-        <v>372</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>373</v>
-      </c>
       <c r="H59" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B60" t="s">
+        <v>371</v>
+      </c>
+      <c r="C60" t="s">
+        <v>372</v>
+      </c>
+      <c r="D60" t="s">
+        <v>373</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B60" t="s">
+      <c r="F60" t="s">
         <v>375</v>
       </c>
-      <c r="C60" t="s">
-        <v>376</v>
-      </c>
-      <c r="D60" t="s">
-        <v>377</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="F60" t="s">
-        <v>379</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>50</v>
+      <c r="G60" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="H60" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I60" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C61" t="s">
+        <v>976</v>
+      </c>
+      <c r="D61" t="s">
+        <v>377</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F61" t="s">
+        <v>379</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B61" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="H61" t="s">
         <v>381</v>
       </c>
-      <c r="E61" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="F61" t="s">
-        <v>383</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="H61" t="s">
-        <v>385</v>
-      </c>
       <c r="I61" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C62" t="s">
+        <v>383</v>
+      </c>
+      <c r="D62" t="s">
+        <v>384</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F62" t="s">
         <v>386</v>
       </c>
-      <c r="B62" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="G62" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H62" t="s">
         <v>387</v>
       </c>
-      <c r="D62" t="s">
-        <v>388</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="F62" t="s">
-        <v>390</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H62" t="s">
-        <v>391</v>
-      </c>
       <c r="I62" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B63" t="s">
+        <v>389</v>
+      </c>
+      <c r="D63" t="s">
+        <v>390</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="F63" t="s">
         <v>392</v>
       </c>
-      <c r="B63" t="s">
+      <c r="G63" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="H63" t="s">
+        <v>272</v>
+      </c>
+      <c r="I63" t="s">
         <v>393</v>
-      </c>
-      <c r="D63" t="s">
-        <v>394</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="F63" t="s">
-        <v>396</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="H63" t="s">
-        <v>275</v>
-      </c>
-      <c r="I63" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B64" t="s">
+        <v>400</v>
+      </c>
+      <c r="C64" t="s">
+        <v>401</v>
+      </c>
+      <c r="D64" t="s">
+        <v>402</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F64" t="s">
         <v>404</v>
       </c>
-      <c r="B64" t="s">
+      <c r="G64" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H64" t="s">
         <v>405</v>
       </c>
-      <c r="C64" t="s">
-        <v>406</v>
-      </c>
-      <c r="D64" t="s">
-        <v>407</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="F64" t="s">
-        <v>409</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H64" t="s">
-        <v>410</v>
-      </c>
       <c r="I64" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C65" t="s">
+        <v>407</v>
+      </c>
+      <c r="D65" t="s">
+        <v>402</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F65" t="s">
+        <v>409</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="H65" t="s">
         <v>411</v>
       </c>
-      <c r="B65" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C65" t="s">
-        <v>412</v>
-      </c>
-      <c r="D65" t="s">
-        <v>407</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="F65" t="s">
-        <v>414</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="H65" t="s">
-        <v>416</v>
-      </c>
       <c r="I65" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B66" t="s">
+        <v>417</v>
+      </c>
+      <c r="C66" t="s">
+        <v>418</v>
+      </c>
+      <c r="D66" t="s">
+        <v>419</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F66" t="s">
         <v>421</v>
       </c>
-      <c r="B66" t="s">
+      <c r="G66" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="C66" t="s">
+      <c r="H66" t="s">
         <v>423</v>
       </c>
-      <c r="D66" t="s">
-        <v>424</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="F66" t="s">
-        <v>426</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="H66" t="s">
-        <v>428</v>
-      </c>
       <c r="I66" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B67" t="s">
-        <v>1067</v>
+        <v>1026</v>
       </c>
       <c r="C67" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D67" t="s">
-        <v>431</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>432</v>
+        <v>426</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>427</v>
       </c>
       <c r="F67" t="s">
-        <v>433</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>104</v>
+        <v>428</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="H67" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I67" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B68" t="s">
-        <v>1068</v>
+        <v>1027</v>
       </c>
       <c r="C68" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D68" t="s">
-        <v>16</v>
-      </c>
-      <c r="E68" s="4">
+        <v>15</v>
+      </c>
+      <c r="E68" s="2">
         <v>108422</v>
       </c>
       <c r="F68" t="s">
-        <v>436</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>432</v>
       </c>
       <c r="H68" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B69" t="s">
-        <v>1069</v>
+        <v>1028</v>
       </c>
       <c r="C69" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D69" t="s">
-        <v>47</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>440</v>
+        <v>45</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>435</v>
       </c>
       <c r="F69" t="s">
-        <v>441</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>442</v>
+        <v>436</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>437</v>
       </c>
       <c r="H69" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I69" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C70" t="s">
+        <v>439</v>
+      </c>
+      <c r="D70" t="s">
+        <v>30</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="F70" t="s">
+        <v>441</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="H70" t="s">
         <v>443</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C70" t="s">
-        <v>444</v>
-      </c>
-      <c r="D70" t="s">
-        <v>32</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="F70" t="s">
-        <v>446</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="H70" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C71" t="s">
+        <v>445</v>
+      </c>
+      <c r="D71" t="s">
+        <v>30</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F71" t="s">
+        <v>447</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="H71" t="s">
+        <v>70</v>
+      </c>
+      <c r="I71" t="s">
         <v>449</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C71" t="s">
-        <v>450</v>
-      </c>
-      <c r="D71" t="s">
-        <v>32</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="F71" t="s">
-        <v>452</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="H71" t="s">
-        <v>73</v>
-      </c>
-      <c r="I71" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B72" t="s">
+        <v>451</v>
+      </c>
+      <c r="C72" t="s">
+        <v>452</v>
+      </c>
+      <c r="D72" t="s">
+        <v>453</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="F72" t="s">
         <v>455</v>
       </c>
-      <c r="B72" t="s">
-        <v>456</v>
-      </c>
-      <c r="C72" t="s">
-        <v>457</v>
-      </c>
-      <c r="D72" t="s">
-        <v>458</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="F72" t="s">
-        <v>460</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>157</v>
+      <c r="G72" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="H72" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I72" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B73" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C73" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D73" t="s">
-        <v>141</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>464</v>
+        <v>138</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>459</v>
       </c>
       <c r="F73" t="s">
-        <v>465</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>50</v>
+        <v>460</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="H73" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="I73" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B74" t="s">
-        <v>1072</v>
+        <v>1031</v>
       </c>
       <c r="C74" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D74" t="s">
-        <v>16</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>468</v>
+        <v>15</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>463</v>
       </c>
       <c r="F74" t="s">
-        <v>469</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>470</v>
+        <v>464</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>465</v>
       </c>
       <c r="H74" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C75" t="s">
+        <v>467</v>
+      </c>
+      <c r="D75" t="s">
+        <v>468</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="F75" t="s">
+        <v>470</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H75" t="s">
         <v>471</v>
       </c>
-      <c r="B75" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C75" t="s">
-        <v>472</v>
-      </c>
-      <c r="D75" t="s">
-        <v>473</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="F75" t="s">
-        <v>475</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H75" t="s">
-        <v>476</v>
-      </c>
       <c r="I75" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B76" t="s">
-        <v>1074</v>
+        <v>1033</v>
       </c>
       <c r="C76" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D76" t="s">
-        <v>16</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>479</v>
+        <v>15</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>474</v>
       </c>
       <c r="F76" t="s">
-        <v>480</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>50</v>
+        <v>475</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="H76" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I76" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B77" t="s">
-        <v>1075</v>
+        <v>1034</v>
       </c>
       <c r="C77" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D77" t="s">
-        <v>16</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>483</v>
+        <v>15</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>478</v>
       </c>
       <c r="F77" t="s">
-        <v>484</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>470</v>
+        <v>479</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>465</v>
       </c>
       <c r="H77" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B78" t="s">
-        <v>1076</v>
+        <v>1035</v>
       </c>
       <c r="C78" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D78" t="s">
-        <v>32</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>487</v>
+        <v>30</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>482</v>
       </c>
       <c r="F78" t="s">
-        <v>488</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>489</v>
+        <v>483</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>484</v>
       </c>
       <c r="H78" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B79" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C79" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D79" t="s">
-        <v>16</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>493</v>
+        <v>15</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>488</v>
       </c>
       <c r="F79" t="s">
-        <v>494</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>437</v>
+        <v>489</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>432</v>
       </c>
       <c r="H79" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B80" t="s">
-        <v>1077</v>
+        <v>1036</v>
       </c>
       <c r="C80" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D80" t="s">
-        <v>47</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>497</v>
+        <v>45</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>492</v>
       </c>
       <c r="F80" t="s">
-        <v>498</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>499</v>
+        <v>493</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>494</v>
       </c>
       <c r="H80" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I80" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B81" t="s">
-        <v>1078</v>
+        <v>1037</v>
       </c>
       <c r="C81" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D81" t="s">
-        <v>16</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>502</v>
+        <v>15</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>497</v>
       </c>
       <c r="F81" t="s">
-        <v>503</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>470</v>
+        <v>498</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>465</v>
       </c>
       <c r="H81" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B82" t="s">
-        <v>1079</v>
+        <v>1038</v>
       </c>
       <c r="C82" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D82" t="s">
-        <v>32</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>506</v>
+        <v>30</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="F82" t="s">
-        <v>507</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>508</v>
+        <v>502</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>503</v>
       </c>
       <c r="H82" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B83" t="s">
-        <v>1080</v>
+        <v>1039</v>
       </c>
       <c r="C83" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D83" t="s">
-        <v>473</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>511</v>
+        <v>468</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>506</v>
       </c>
       <c r="F83" t="s">
-        <v>512</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>513</v>
+        <v>507</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>508</v>
       </c>
       <c r="H83" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B84" t="s">
-        <v>1081</v>
+        <v>1040</v>
       </c>
       <c r="C84" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="D84" t="s">
-        <v>516</v>
-      </c>
-      <c r="E84" s="4">
+        <v>511</v>
+      </c>
+      <c r="E84" s="2">
         <v>2321</v>
       </c>
       <c r="F84" t="s">
-        <v>517</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>518</v>
+        <v>512</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>513</v>
       </c>
       <c r="H84" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I84" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B85" t="s">
-        <v>1082</v>
+        <v>1041</v>
       </c>
       <c r="C85" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="D85" t="s">
-        <v>16</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>521</v>
+        <v>15</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>516</v>
       </c>
       <c r="F85" t="s">
-        <v>522</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>523</v>
+        <v>517</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>518</v>
       </c>
       <c r="H85" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B86" t="s">
-        <v>1083</v>
+        <v>1042</v>
       </c>
       <c r="C86" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D86" t="s">
-        <v>16</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>526</v>
+        <v>15</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>521</v>
       </c>
       <c r="F86" t="s">
-        <v>527</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>523</v>
       </c>
       <c r="H86" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B87" t="s">
+        <v>525</v>
+      </c>
+      <c r="C87" t="s">
+        <v>526</v>
+      </c>
+      <c r="D87" t="s">
+        <v>527</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="F87" t="s">
         <v>529</v>
       </c>
-      <c r="B87" t="s">
+      <c r="G87" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="C87" t="s">
-        <v>531</v>
-      </c>
-      <c r="D87" t="s">
-        <v>532</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="F87" t="s">
-        <v>534</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>535</v>
-      </c>
       <c r="H87" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I87" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B88" t="s">
+        <v>532</v>
+      </c>
+      <c r="C88" t="s">
+        <v>533</v>
+      </c>
+      <c r="D88" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="F88" t="s">
+        <v>535</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="B88" t="s">
-        <v>537</v>
-      </c>
-      <c r="C88" t="s">
-        <v>538</v>
-      </c>
-      <c r="D88" t="s">
-        <v>16</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="F88" t="s">
-        <v>540</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>541</v>
-      </c>
       <c r="H88" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B89" t="s">
-        <v>1084</v>
+        <v>1043</v>
       </c>
       <c r="C89" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D89" t="s">
-        <v>544</v>
-      </c>
-      <c r="E89" s="4">
+        <v>539</v>
+      </c>
+      <c r="E89" s="2">
         <v>115809</v>
       </c>
       <c r="F89" t="s">
-        <v>545</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>546</v>
+        <v>540</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>541</v>
       </c>
       <c r="H89" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B90" t="s">
+        <v>543</v>
+      </c>
+      <c r="C90" t="s">
+        <v>544</v>
+      </c>
+      <c r="D90" t="s">
+        <v>30</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F90" t="s">
+        <v>546</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="B90" t="s">
-        <v>548</v>
-      </c>
-      <c r="C90" t="s">
-        <v>549</v>
-      </c>
-      <c r="D90" t="s">
-        <v>32</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="F90" t="s">
-        <v>551</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>552</v>
-      </c>
       <c r="H90" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B91" t="s">
-        <v>1085</v>
+        <v>1044</v>
       </c>
       <c r="C91" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D91" t="s">
-        <v>16</v>
-      </c>
-      <c r="E91" s="4">
+        <v>15</v>
+      </c>
+      <c r="E91" s="2">
         <v>109233</v>
       </c>
       <c r="F91" t="s">
-        <v>555</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>556</v>
+        <v>550</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>551</v>
       </c>
       <c r="H91" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="B92" t="s">
-        <v>1086</v>
+        <v>1045</v>
       </c>
       <c r="C92" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D92" t="s">
-        <v>532</v>
-      </c>
-      <c r="E92" s="4">
+        <v>527</v>
+      </c>
+      <c r="E92" s="2">
         <v>111869</v>
       </c>
       <c r="F92" t="s">
-        <v>559</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>560</v>
+        <v>554</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>555</v>
       </c>
       <c r="H92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B93" t="s">
-        <v>1087</v>
+        <v>1046</v>
       </c>
       <c r="C93" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="D93" t="s">
-        <v>16</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>563</v>
+        <v>15</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>558</v>
       </c>
       <c r="F93" t="s">
-        <v>564</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>565</v>
+        <v>559</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>560</v>
       </c>
       <c r="H93" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B94" t="s">
-        <v>1088</v>
+        <v>1047</v>
       </c>
       <c r="C94" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D94" t="s">
-        <v>16</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>568</v>
+        <v>15</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="F94" t="s">
-        <v>569</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>570</v>
+        <v>564</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>565</v>
       </c>
       <c r="H94" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B95" t="s">
-        <v>1089</v>
+        <v>1048</v>
       </c>
       <c r="C95" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="D95" t="s">
-        <v>16</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>573</v>
+        <v>15</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>568</v>
       </c>
       <c r="F95" t="s">
-        <v>574</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>575</v>
+        <v>569</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>570</v>
       </c>
       <c r="H95" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="B96" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C96" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="D96" t="s">
-        <v>16</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>578</v>
+        <v>15</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>573</v>
       </c>
       <c r="F96" t="s">
-        <v>579</v>
-      </c>
-      <c r="G96" s="4" t="s">
-        <v>437</v>
+        <v>574</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>432</v>
       </c>
       <c r="H96" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="B97" t="s">
-        <v>1091</v>
+        <v>1050</v>
       </c>
       <c r="C97" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="D97" t="s">
-        <v>587</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>588</v>
+        <v>582</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>583</v>
       </c>
       <c r="F97" t="s">
-        <v>589</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>33</v>
+        <v>584</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H97" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="B98" t="s">
-        <v>1092</v>
+        <v>1051</v>
       </c>
       <c r="C98" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="D98" t="s">
-        <v>16</v>
-      </c>
-      <c r="E98" s="4">
+        <v>15</v>
+      </c>
+      <c r="E98" s="2">
         <v>106446</v>
       </c>
       <c r="F98" t="s">
-        <v>592</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>265</v>
+        <v>587</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>262</v>
       </c>
       <c r="H98" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B99" t="s">
-        <v>1093</v>
+        <v>1052</v>
       </c>
       <c r="C99" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D99" t="s">
-        <v>16</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>595</v>
+        <v>15</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>590</v>
       </c>
       <c r="F99" t="s">
-        <v>596</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>597</v>
+        <v>591</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>592</v>
       </c>
       <c r="H99" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="B100" t="s">
-        <v>1094</v>
+        <v>1053</v>
       </c>
       <c r="C100" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="D100" t="s">
-        <v>32</v>
-      </c>
-      <c r="E100" s="4">
+        <v>30</v>
+      </c>
+      <c r="E100" s="2">
         <v>117112</v>
       </c>
       <c r="F100" t="s">
-        <v>600</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>601</v>
+        <v>595</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>596</v>
       </c>
       <c r="H100" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B101" t="s">
+        <v>598</v>
+      </c>
+      <c r="C101" t="s">
+        <v>599</v>
+      </c>
+      <c r="D101" t="s">
+        <v>527</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F101" t="s">
+        <v>601</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="B101" t="s">
-        <v>603</v>
-      </c>
-      <c r="C101" t="s">
-        <v>604</v>
-      </c>
-      <c r="D101" t="s">
-        <v>532</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="F101" t="s">
-        <v>606</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>607</v>
-      </c>
       <c r="H101" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B102" t="s">
-        <v>1095</v>
+        <v>1054</v>
       </c>
       <c r="C102" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="D102" t="s">
-        <v>32</v>
-      </c>
-      <c r="E102" s="4">
+        <v>30</v>
+      </c>
+      <c r="E102" s="2">
         <v>117957</v>
       </c>
       <c r="F102" t="s">
-        <v>610</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>611</v>
+        <v>605</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>606</v>
       </c>
       <c r="H102" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B103" t="s">
-        <v>1097</v>
+        <v>1056</v>
       </c>
       <c r="C103" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="D103" t="s">
-        <v>617</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>618</v>
+        <v>612</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>613</v>
       </c>
       <c r="F103" t="s">
-        <v>619</v>
-      </c>
-      <c r="G103" s="4">
+        <v>614</v>
+      </c>
+      <c r="G103" s="2">
         <v>151</v>
       </c>
       <c r="H103" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C104" t="s">
+        <v>616</v>
+      </c>
+      <c r="D104" t="s">
+        <v>617</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="F104" t="s">
+        <v>619</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="B104" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C104" t="s">
-        <v>621</v>
-      </c>
-      <c r="D104" t="s">
-        <v>622</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>623</v>
-      </c>
-      <c r="F104" t="s">
-        <v>624</v>
-      </c>
-      <c r="G104" s="4" t="s">
-        <v>625</v>
-      </c>
       <c r="H104" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I104" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="B105" t="s">
-        <v>1099</v>
+        <v>1058</v>
       </c>
       <c r="C105" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="D105" t="s">
-        <v>16</v>
-      </c>
-      <c r="E105" s="4">
+        <v>15</v>
+      </c>
+      <c r="E105" s="2">
         <v>111336</v>
       </c>
       <c r="F105" t="s">
-        <v>628</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>629</v>
+        <v>623</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>624</v>
       </c>
       <c r="H105" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C106" t="s">
+        <v>626</v>
+      </c>
+      <c r="D106" t="s">
+        <v>627</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="F106" t="s">
+        <v>629</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="B106" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="H106" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="D106" t="s">
+      <c r="B107" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="E106" s="4" t="s">
+      <c r="D107" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E107" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F107" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="G106" s="4" t="s">
-        <v>635</v>
-      </c>
-      <c r="H106" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>1151</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>638</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>639</v>
-      </c>
-      <c r="G107" s="8" t="s">
-        <v>635</v>
-      </c>
-      <c r="H107" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="I107" s="7" t="s">
-        <v>89</v>
+      <c r="G107" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B108" t="s">
+        <v>636</v>
+      </c>
+      <c r="C108" t="s">
+        <v>637</v>
+      </c>
+      <c r="D108" t="s">
+        <v>638</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="F108" t="s">
         <v>640</v>
       </c>
-      <c r="B108" t="s">
+      <c r="G108" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="H108" t="s">
+        <v>223</v>
+      </c>
+      <c r="I108" t="s">
         <v>641</v>
-      </c>
-      <c r="C108" t="s">
-        <v>642</v>
-      </c>
-      <c r="D108" t="s">
-        <v>643</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>644</v>
-      </c>
-      <c r="F108" t="s">
-        <v>645</v>
-      </c>
-      <c r="G108" s="4" t="s">
-        <v>635</v>
-      </c>
-      <c r="H108" t="s">
-        <v>226</v>
-      </c>
-      <c r="I108" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C109" t="s">
+        <v>643</v>
+      </c>
+      <c r="D109" t="s">
+        <v>644</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="F109" t="s">
+        <v>646</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H109" t="s">
+        <v>443</v>
+      </c>
+      <c r="I109" t="s">
         <v>647</v>
-      </c>
-      <c r="B109" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C109" t="s">
-        <v>648</v>
-      </c>
-      <c r="D109" t="s">
-        <v>649</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>650</v>
-      </c>
-      <c r="F109" t="s">
-        <v>651</v>
-      </c>
-      <c r="G109" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H109" t="s">
-        <v>448</v>
-      </c>
-      <c r="I109" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="B110" t="s">
-        <v>1103</v>
+        <v>1062</v>
       </c>
       <c r="C110" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="D110" t="s">
-        <v>47</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>655</v>
+        <v>45</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="F110" t="s">
-        <v>656</v>
-      </c>
-      <c r="G110" s="4" t="s">
-        <v>167</v>
+        <v>651</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="H110" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I110" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C111" t="s">
+        <v>653</v>
+      </c>
+      <c r="D111" t="s">
+        <v>654</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="F111" t="s">
+        <v>656</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H111" t="s">
+        <v>49</v>
+      </c>
+      <c r="I111" t="s">
         <v>657</v>
-      </c>
-      <c r="B111" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C111" t="s">
-        <v>658</v>
-      </c>
-      <c r="D111" t="s">
-        <v>659</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="F111" t="s">
-        <v>661</v>
-      </c>
-      <c r="G111" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H111" t="s">
-        <v>51</v>
-      </c>
-      <c r="I111" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="B112" t="s">
-        <v>1105</v>
+        <v>1064</v>
       </c>
       <c r="C112" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="D112" t="s">
-        <v>665</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>666</v>
+        <v>660</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>661</v>
       </c>
       <c r="F112" t="s">
-        <v>667</v>
-      </c>
-      <c r="G112" s="4" t="s">
-        <v>588</v>
+        <v>662</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>583</v>
       </c>
       <c r="H112" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="I112" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="B113" t="s">
-        <v>1106</v>
+        <v>1065</v>
       </c>
       <c r="C113" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="D113" t="s">
-        <v>670</v>
-      </c>
-      <c r="E113" s="4">
+        <v>665</v>
+      </c>
+      <c r="E113" s="2">
         <v>98</v>
       </c>
       <c r="F113" t="s">
-        <v>671</v>
-      </c>
-      <c r="G113" s="4" t="s">
-        <v>104</v>
+        <v>666</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="H113" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I113" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="B114" t="s">
-        <v>1107</v>
+        <v>1066</v>
       </c>
       <c r="C114" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="D114" t="s">
-        <v>674</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>675</v>
+        <v>669</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>670</v>
       </c>
       <c r="F114" t="s">
-        <v>676</v>
-      </c>
-      <c r="G114" s="4" t="s">
-        <v>415</v>
+        <v>671</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>410</v>
       </c>
       <c r="H114" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="I114" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="B115" t="s">
-        <v>1108</v>
+        <v>1067</v>
       </c>
       <c r="C115" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="D115" t="s">
-        <v>679</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>680</v>
+        <v>674</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>675</v>
       </c>
       <c r="F115" t="s">
-        <v>681</v>
-      </c>
-      <c r="G115" s="4" t="s">
-        <v>329</v>
+        <v>676</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="H115" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I115" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B116" t="s">
-        <v>1109</v>
+        <v>1068</v>
       </c>
       <c r="D116" t="s">
-        <v>394</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>683</v>
+        <v>390</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>678</v>
       </c>
       <c r="F116" t="s">
-        <v>684</v>
-      </c>
-      <c r="G116" s="4" t="s">
-        <v>74</v>
+        <v>679</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="H116" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B117" t="s">
+        <v>682</v>
+      </c>
+      <c r="C117" t="s">
+        <v>683</v>
+      </c>
+      <c r="D117" t="s">
+        <v>684</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="F117" t="s">
         <v>686</v>
       </c>
-      <c r="B117" t="s">
+      <c r="G117" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="C117" t="s">
+      <c r="H117" t="s">
         <v>688</v>
       </c>
-      <c r="D117" t="s">
+      <c r="I117" t="s">
         <v>689</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>690</v>
-      </c>
-      <c r="F117" t="s">
-        <v>691</v>
-      </c>
-      <c r="G117" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="H117" t="s">
-        <v>693</v>
-      </c>
-      <c r="I117" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="B118" t="s">
-        <v>1110</v>
+        <v>1069</v>
       </c>
       <c r="D118" t="s">
-        <v>394</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>696</v>
+        <v>390</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>691</v>
       </c>
       <c r="F118" t="s">
-        <v>697</v>
-      </c>
-      <c r="G118" s="4" t="s">
-        <v>442</v>
+        <v>692</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>437</v>
       </c>
       <c r="H118" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="B119" t="s">
-        <v>1111</v>
+        <v>1070</v>
       </c>
       <c r="C119" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="D119" t="s">
-        <v>700</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>701</v>
+        <v>695</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>696</v>
       </c>
       <c r="F119" t="s">
-        <v>702</v>
-      </c>
-      <c r="G119" s="4" t="s">
-        <v>63</v>
+        <v>697</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="H119" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I119" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="B120" t="s">
-        <v>1112</v>
+        <v>1071</v>
       </c>
       <c r="C120" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="D120" t="s">
-        <v>16</v>
-      </c>
-      <c r="E120" s="4">
+        <v>15</v>
+      </c>
+      <c r="E120" s="2">
         <v>107456</v>
       </c>
       <c r="F120" t="s">
-        <v>705</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>706</v>
+        <v>700</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>701</v>
       </c>
       <c r="H120" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="B121" t="s">
-        <v>1113</v>
+        <v>1072</v>
       </c>
       <c r="C121" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="D121" t="s">
-        <v>674</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>709</v>
+        <v>669</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>704</v>
       </c>
       <c r="F121" t="s">
-        <v>710</v>
-      </c>
-      <c r="G121" s="4" t="s">
-        <v>711</v>
+        <v>705</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>706</v>
       </c>
       <c r="H121" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I121" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C122" t="s">
+        <v>708</v>
+      </c>
+      <c r="D122" t="s">
+        <v>709</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="F122" t="s">
+        <v>711</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="B122" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C122" t="s">
-        <v>713</v>
-      </c>
-      <c r="D122" t="s">
-        <v>714</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="F122" t="s">
-        <v>716</v>
-      </c>
-      <c r="G122" s="4" t="s">
-        <v>717</v>
-      </c>
       <c r="H122" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I122" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="B123" t="s">
-        <v>1115</v>
+        <v>1074</v>
       </c>
       <c r="C123" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="D123" t="s">
-        <v>278</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>720</v>
+        <v>275</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>715</v>
       </c>
       <c r="F123" t="s">
-        <v>721</v>
-      </c>
-      <c r="G123" s="4" t="s">
-        <v>113</v>
+        <v>716</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="H123" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B124" t="s">
+        <v>718</v>
+      </c>
+      <c r="C124" t="s">
+        <v>719</v>
+      </c>
+      <c r="D124" t="s">
+        <v>138</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="F124" t="s">
+        <v>721</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="B124" t="s">
-        <v>723</v>
-      </c>
-      <c r="C124" t="s">
-        <v>724</v>
-      </c>
-      <c r="D124" t="s">
-        <v>141</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>725</v>
-      </c>
-      <c r="F124" t="s">
-        <v>727</v>
-      </c>
-      <c r="G124" s="4" t="s">
-        <v>728</v>
-      </c>
       <c r="H124" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I124" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="B125" t="s">
-        <v>1116</v>
+        <v>1075</v>
       </c>
       <c r="C125" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="D125" t="s">
-        <v>731</v>
-      </c>
-      <c r="E125" s="4">
+        <v>725</v>
+      </c>
+      <c r="E125" s="2">
         <v>102366</v>
       </c>
       <c r="F125" t="s">
-        <v>732</v>
-      </c>
-      <c r="G125" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>727</v>
       </c>
       <c r="H125" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="B126" t="s">
-        <v>1117</v>
+        <v>1076</v>
       </c>
       <c r="C126" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="D126" t="s">
-        <v>736</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>200</v>
+        <v>730</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="F126" t="s">
-        <v>737</v>
-      </c>
-      <c r="G126" s="4" t="s">
-        <v>151</v>
+        <v>731</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="H126" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="I126" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="B127" t="s">
-        <v>1118</v>
+        <v>1077</v>
       </c>
       <c r="C127" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="D127" t="s">
-        <v>88</v>
-      </c>
-      <c r="E127" s="4">
+        <v>85</v>
+      </c>
+      <c r="E127" s="2">
         <v>2314</v>
       </c>
       <c r="F127" t="s">
-        <v>740</v>
-      </c>
-      <c r="G127" s="4" t="s">
-        <v>63</v>
+        <v>734</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="H127" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="I127" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="B128" t="s">
-        <v>1119</v>
+        <v>1078</v>
       </c>
       <c r="C128" t="s">
-        <v>996</v>
+        <v>955</v>
       </c>
       <c r="D128" t="s">
-        <v>742</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>743</v>
+        <v>736</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>737</v>
       </c>
       <c r="F128" t="s">
-        <v>744</v>
-      </c>
-      <c r="G128" s="4" t="s">
-        <v>745</v>
+        <v>738</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>739</v>
       </c>
       <c r="H128" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I128" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="B129" t="s">
-        <v>1120</v>
+        <v>1079</v>
       </c>
       <c r="C129" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="D129" t="s">
-        <v>674</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>748</v>
+        <v>669</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>742</v>
       </c>
       <c r="F129" t="s">
-        <v>749</v>
-      </c>
-      <c r="G129" s="4" t="s">
-        <v>499</v>
+        <v>743</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>494</v>
       </c>
       <c r="H129" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="I129" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="B130" t="s">
-        <v>1121</v>
+        <v>1080</v>
       </c>
       <c r="C130" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="D130" t="s">
-        <v>752</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>753</v>
+        <v>746</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>747</v>
       </c>
       <c r="F130" t="s">
-        <v>754</v>
-      </c>
-      <c r="G130" s="4" t="s">
-        <v>755</v>
+        <v>748</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>749</v>
       </c>
       <c r="H130" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="B131" t="s">
-        <v>1122</v>
+        <v>1081</v>
       </c>
       <c r="C131" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="D131" t="s">
-        <v>758</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>759</v>
+        <v>752</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>753</v>
       </c>
       <c r="F131" t="s">
-        <v>760</v>
-      </c>
-      <c r="G131" s="4" t="s">
-        <v>535</v>
+        <v>754</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>530</v>
       </c>
       <c r="H131" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="B132" t="s">
-        <v>1123</v>
+        <v>1082</v>
       </c>
       <c r="C132" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="D132" t="s">
-        <v>763</v>
-      </c>
-      <c r="E132" s="4">
+        <v>757</v>
+      </c>
+      <c r="E132" s="2">
         <v>773</v>
       </c>
       <c r="F132" t="s">
-        <v>764</v>
-      </c>
-      <c r="G132" s="4" t="s">
-        <v>588</v>
+        <v>758</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>583</v>
       </c>
       <c r="H132" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="I132" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="B133" t="s">
-        <v>1125</v>
+        <v>1084</v>
       </c>
       <c r="C133" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="D133" t="s">
-        <v>771</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>772</v>
+        <v>765</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>766</v>
       </c>
       <c r="F133" t="s">
-        <v>773</v>
-      </c>
-      <c r="G133" s="4" t="s">
-        <v>774</v>
+        <v>767</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>768</v>
       </c>
       <c r="H133" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I133" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="B134" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="C134" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="D134" t="s">
-        <v>95</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>778</v>
+        <v>92</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>772</v>
       </c>
       <c r="F134" t="s">
-        <v>779</v>
-      </c>
-      <c r="G134" s="4" t="s">
-        <v>780</v>
+        <v>773</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>774</v>
       </c>
       <c r="H134" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I134" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="B135" t="s">
-        <v>1126</v>
+        <v>1085</v>
       </c>
       <c r="C135" t="s">
-        <v>998</v>
+        <v>957</v>
       </c>
       <c r="D135" t="s">
-        <v>172</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>782</v>
+        <v>169</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>776</v>
       </c>
       <c r="F135" t="s">
-        <v>783</v>
-      </c>
-      <c r="G135" s="4" t="s">
-        <v>142</v>
+        <v>777</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="H135" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I135" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="B136" t="s">
-        <v>1127</v>
+        <v>1086</v>
       </c>
       <c r="C136" t="s">
-        <v>999</v>
+        <v>958</v>
       </c>
       <c r="D136" t="s">
-        <v>141</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>1134</v>
+        <v>138</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>1093</v>
       </c>
       <c r="F136" t="s">
-        <v>785</v>
-      </c>
-      <c r="G136" s="4">
+        <v>779</v>
+      </c>
+      <c r="G136" s="2">
         <v>33</v>
       </c>
       <c r="H136" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="I136" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="B137" t="s">
-        <v>1128</v>
+        <v>1087</v>
       </c>
       <c r="C137" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="D137" t="s">
-        <v>32</v>
-      </c>
-      <c r="E137" s="4">
+        <v>30</v>
+      </c>
+      <c r="E137" s="2">
         <v>115012</v>
       </c>
       <c r="F137" t="s">
-        <v>788</v>
-      </c>
-      <c r="G137" s="4" t="s">
-        <v>789</v>
+        <v>782</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>783</v>
       </c>
       <c r="H137" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="B138" t="s">
-        <v>1129</v>
+        <v>1088</v>
       </c>
       <c r="C138" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="D138" t="s">
-        <v>792</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>793</v>
+        <v>786</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>787</v>
       </c>
       <c r="F138" t="s">
-        <v>794</v>
-      </c>
-      <c r="G138" s="4" t="s">
-        <v>795</v>
+        <v>788</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>789</v>
       </c>
       <c r="H138" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="I138" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="B139" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="C139" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="D139" t="s">
-        <v>118</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>799</v>
+        <v>115</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>793</v>
       </c>
       <c r="F139" t="s">
-        <v>800</v>
-      </c>
-      <c r="G139" s="4" t="s">
-        <v>145</v>
+        <v>794</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="H139" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I139" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="B140" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="C140" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="D140" t="s">
-        <v>141</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>804</v>
+        <v>138</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>798</v>
       </c>
       <c r="F140" t="s">
-        <v>805</v>
-      </c>
-      <c r="G140" s="4" t="s">
-        <v>806</v>
+        <v>799</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>800</v>
       </c>
       <c r="H140" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I140" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="B141" t="s">
-        <v>1130</v>
+        <v>1089</v>
       </c>
       <c r="C141" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="D141" t="s">
-        <v>16</v>
-      </c>
-      <c r="E141" s="4" t="s">
-        <v>809</v>
+        <v>15</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>803</v>
       </c>
       <c r="F141" t="s">
-        <v>810</v>
-      </c>
-      <c r="G141" s="4" t="s">
-        <v>811</v>
+        <v>804</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>805</v>
       </c>
       <c r="H141" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C142" t="s">
+        <v>816</v>
+      </c>
+      <c r="D142" t="s">
+        <v>146</v>
+      </c>
+      <c r="E142" s="2">
+        <v>1615</v>
+      </c>
+      <c r="F142" t="s">
+        <v>815</v>
+      </c>
+      <c r="G142" t="s">
+        <v>110</v>
+      </c>
+      <c r="H142" t="s">
+        <v>49</v>
+      </c>
+      <c r="I142" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -7776,10 +7813,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7790,11 +7827,11 @@
     <col min="4" max="4" width="143.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="101.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="101.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7811,754 +7848,866 @@
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D2" t="s">
+        <v>808</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C3" t="s">
+        <v>811</v>
+      </c>
+      <c r="D3" t="s">
+        <v>812</v>
+      </c>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" t="s">
+        <v>813</v>
+      </c>
+      <c r="G3" s="2">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H3" t="s">
+        <v>810</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C4" t="s">
+        <v>435</v>
+      </c>
+      <c r="D4" t="s">
+        <v>819</v>
+      </c>
+      <c r="E4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>818</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B5" t="s">
+        <v>821</v>
+      </c>
+      <c r="C5" s="2">
+        <v>72460</v>
+      </c>
+      <c r="D5" t="s">
+        <v>823</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" t="s">
+        <v>824</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>822</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C6" t="s">
+        <v>827</v>
+      </c>
+      <c r="D6" t="s">
+        <v>828</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G6" s="7">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>826</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C7" t="s">
+        <v>831</v>
+      </c>
+      <c r="D7" t="s">
+        <v>832</v>
+      </c>
+      <c r="E7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" t="s">
+        <v>833</v>
+      </c>
+      <c r="G7" s="7">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>830</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C8" t="s">
+        <v>836</v>
+      </c>
+      <c r="D8" t="s">
+        <v>837</v>
+      </c>
+      <c r="E8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G8" s="7">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>835</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C9" t="s">
+        <v>840</v>
+      </c>
+      <c r="D9" t="s">
+        <v>841</v>
+      </c>
+      <c r="E9" t="s">
+        <v>842</v>
+      </c>
+      <c r="F9" t="s">
+        <v>843</v>
+      </c>
+      <c r="G9" s="7">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H9" t="s">
+        <v>839</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C10" t="s">
+        <v>846</v>
+      </c>
+      <c r="D10" t="s">
+        <v>847</v>
+      </c>
+      <c r="E10" t="s">
+        <v>579</v>
+      </c>
+      <c r="F10" t="s">
+        <v>848</v>
+      </c>
+      <c r="G10" s="7">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C2" t="s">
-        <v>497</v>
-      </c>
-      <c r="D2" t="s">
-        <v>815</v>
-      </c>
-      <c r="E2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="H10" t="s">
+        <v>845</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C11" t="s">
+        <v>851</v>
+      </c>
+      <c r="D11" t="s">
+        <v>852</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>853</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B12" t="s">
+        <v>855</v>
+      </c>
+      <c r="C12" t="s">
+        <v>856</v>
+      </c>
+      <c r="D12" t="s">
+        <v>857</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" t="s">
+        <v>858</v>
+      </c>
+      <c r="G12" s="7">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>859</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C13" t="s">
+        <v>435</v>
+      </c>
+      <c r="D13" t="s">
+        <v>861</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" t="s">
+        <v>862</v>
+      </c>
+      <c r="G13" s="7">
+        <v>6</v>
+      </c>
+      <c r="H13" t="s">
+        <v>863</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C14" t="s">
+        <v>865</v>
+      </c>
+      <c r="D14" t="s">
+        <v>866</v>
+      </c>
+      <c r="E14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" t="s">
+        <v>867</v>
+      </c>
+      <c r="G14" s="2">
+        <v>10</v>
+      </c>
+      <c r="H14" t="s">
+        <v>868</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C15" t="s">
+        <v>870</v>
+      </c>
+      <c r="D15" t="s">
+        <v>871</v>
+      </c>
+      <c r="E15" t="s">
+        <v>443</v>
+      </c>
+      <c r="F15" t="s">
+        <v>872</v>
+      </c>
+      <c r="G15" s="7">
+        <v>6</v>
+      </c>
+      <c r="H15" t="s">
+        <v>873</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D16" t="s">
+        <v>875</v>
+      </c>
+      <c r="E16" t="s">
+        <v>301</v>
+      </c>
+      <c r="G16" s="7">
+        <v>2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>876</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C17" t="s">
+        <v>878</v>
+      </c>
+      <c r="D17" t="s">
+        <v>879</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" t="s">
+        <v>880</v>
+      </c>
+      <c r="G17" s="7">
+        <v>6</v>
+      </c>
+      <c r="H17" t="s">
+        <v>881</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C18" t="s">
+        <v>883</v>
+      </c>
+      <c r="D18" t="s">
+        <v>884</v>
+      </c>
+      <c r="E18" t="s">
+        <v>172</v>
+      </c>
+      <c r="F18" t="s">
+        <v>885</v>
+      </c>
+      <c r="G18" s="7">
+        <v>6</v>
+      </c>
+      <c r="H18" t="s">
+        <v>886</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C19" t="s">
+        <v>888</v>
+      </c>
+      <c r="D19" t="s">
+        <v>889</v>
+      </c>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" t="s">
+        <v>890</v>
+      </c>
+      <c r="G19" s="7">
+        <v>6</v>
+      </c>
+      <c r="H19" t="s">
+        <v>891</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C20" s="2">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>893</v>
+      </c>
+      <c r="E20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" t="s">
+        <v>894</v>
+      </c>
+      <c r="G20" s="7">
+        <v>9</v>
+      </c>
+      <c r="H20" t="s">
+        <v>895</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C21" t="s">
+        <v>897</v>
+      </c>
+      <c r="D21" t="s">
+        <v>898</v>
+      </c>
+      <c r="E21" t="s">
+        <v>607</v>
+      </c>
+      <c r="F21" t="s">
+        <v>899</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" t="s">
+        <v>900</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C22" t="s">
+        <v>902</v>
+      </c>
+      <c r="D22" t="s">
+        <v>903</v>
+      </c>
+      <c r="E22" t="s">
+        <v>904</v>
+      </c>
+      <c r="F22" t="s">
+        <v>905</v>
+      </c>
+      <c r="G22" s="7">
+        <v>9</v>
+      </c>
+      <c r="H22" t="s">
+        <v>906</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="I23" s="4" t="s">
         <v>1135</v>
       </c>
-      <c r="C3" t="s">
-        <v>818</v>
-      </c>
-      <c r="D3" t="s">
-        <v>819</v>
-      </c>
-      <c r="E3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" t="s">
-        <v>820</v>
-      </c>
-      <c r="K3" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="24" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>1136</v>
       </c>
-      <c r="C4" t="s">
-        <v>822</v>
-      </c>
-      <c r="D4" t="s">
-        <v>823</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" t="s">
-        <v>824</v>
-      </c>
-      <c r="G4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" t="s">
-        <v>113</v>
-      </c>
-      <c r="K4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="G24" s="5"/>
+      <c r="H24" s="4" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>1137</v>
       </c>
-      <c r="C5" t="s">
-        <v>440</v>
-      </c>
-      <c r="D5" t="s">
-        <v>827</v>
-      </c>
-      <c r="E5" t="s">
-        <v>195</v>
-      </c>
-      <c r="K5" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="B6" t="s">
-        <v>829</v>
-      </c>
-      <c r="C6" t="s">
-        <v>831</v>
-      </c>
-      <c r="D6" t="s">
-        <v>832</v>
-      </c>
-      <c r="E6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" t="s">
-        <v>833</v>
-      </c>
-      <c r="H6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" t="s">
-        <v>834</v>
-      </c>
-      <c r="J6" t="s">
-        <v>835</v>
-      </c>
-      <c r="K6" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="E25" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>1138</v>
       </c>
-      <c r="C7" t="s">
-        <v>838</v>
-      </c>
-      <c r="D7" t="s">
-        <v>839</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="26" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>1139</v>
       </c>
-      <c r="C8" t="s">
-        <v>842</v>
-      </c>
-      <c r="D8" t="s">
-        <v>843</v>
-      </c>
-      <c r="E8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" t="s">
-        <v>844</v>
-      </c>
-      <c r="K8" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C9" t="s">
-        <v>847</v>
-      </c>
-      <c r="D9" t="s">
-        <v>848</v>
-      </c>
-      <c r="E9" t="s">
-        <v>158</v>
-      </c>
-      <c r="K9" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C10" t="s">
-        <v>851</v>
-      </c>
-      <c r="D10" t="s">
-        <v>852</v>
-      </c>
-      <c r="E10" t="s">
-        <v>853</v>
-      </c>
-      <c r="F10" t="s">
-        <v>854</v>
-      </c>
-      <c r="I10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="28" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>1141</v>
       </c>
-      <c r="C11" t="s">
-        <v>857</v>
-      </c>
-      <c r="D11" t="s">
-        <v>858</v>
-      </c>
-      <c r="E11" t="s">
-        <v>584</v>
-      </c>
-      <c r="F11" t="s">
-        <v>859</v>
-      </c>
-      <c r="I11" t="s">
-        <v>860</v>
-      </c>
-      <c r="K11" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D28" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>1142</v>
       </c>
-      <c r="C12" t="s">
-        <v>863</v>
-      </c>
-      <c r="D12" t="s">
-        <v>864</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" t="s">
-        <v>865</v>
-      </c>
-      <c r="I12" t="s">
-        <v>726</v>
-      </c>
-      <c r="J12" t="s">
-        <v>866</v>
-      </c>
-      <c r="K12" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="B13" t="s">
-        <v>868</v>
-      </c>
-      <c r="C13" t="s">
-        <v>869</v>
-      </c>
-      <c r="D13" t="s">
-        <v>870</v>
-      </c>
-      <c r="E13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" t="s">
-        <v>871</v>
-      </c>
-      <c r="I13" t="s">
-        <v>872</v>
-      </c>
-      <c r="K13" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="29" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>1143</v>
       </c>
-      <c r="C14" t="s">
-        <v>440</v>
-      </c>
-      <c r="D14" t="s">
-        <v>875</v>
-      </c>
-      <c r="E14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" t="s">
-        <v>876</v>
-      </c>
-      <c r="K14" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="D29" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="I29" s="4" t="s">
         <v>1144</v>
       </c>
-      <c r="C15" t="s">
-        <v>879</v>
-      </c>
-      <c r="D15" t="s">
-        <v>880</v>
-      </c>
-      <c r="E15" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" t="s">
-        <v>881</v>
-      </c>
-      <c r="H15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" t="s">
-        <v>882</v>
-      </c>
-      <c r="K15" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="30" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="I30" s="4" t="s">
         <v>1145</v>
       </c>
-      <c r="C16" t="s">
-        <v>885</v>
-      </c>
-      <c r="D16" t="s">
-        <v>886</v>
-      </c>
-      <c r="E16" t="s">
-        <v>448</v>
-      </c>
-      <c r="F16" t="s">
-        <v>887</v>
-      </c>
-      <c r="K16" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D17" t="s">
-        <v>890</v>
-      </c>
-      <c r="E17" t="s">
-        <v>304</v>
-      </c>
-      <c r="K17" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C18" t="s">
-        <v>893</v>
-      </c>
-      <c r="D18" t="s">
-        <v>894</v>
-      </c>
-      <c r="E18" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" t="s">
-        <v>895</v>
-      </c>
-      <c r="K18" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C19" t="s">
-        <v>898</v>
-      </c>
-      <c r="D19" t="s">
-        <v>899</v>
-      </c>
-      <c r="E19" t="s">
+    </row>
+    <row r="31" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="F19" t="s">
-        <v>900</v>
-      </c>
-      <c r="K19" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C20" t="s">
-        <v>903</v>
-      </c>
-      <c r="D20" t="s">
-        <v>904</v>
-      </c>
-      <c r="E20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" t="s">
-        <v>905</v>
-      </c>
-      <c r="K20" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D21" t="s">
-        <v>908</v>
-      </c>
-      <c r="E21" t="s">
-        <v>99</v>
-      </c>
-      <c r="F21" t="s">
-        <v>909</v>
-      </c>
-      <c r="I21" t="s">
-        <v>910</v>
-      </c>
-      <c r="K21" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C22" t="s">
-        <v>913</v>
-      </c>
-      <c r="D22" t="s">
-        <v>914</v>
-      </c>
-      <c r="E22" t="s">
-        <v>612</v>
-      </c>
-      <c r="F22" t="s">
-        <v>915</v>
-      </c>
-      <c r="K22" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C23" t="s">
-        <v>918</v>
-      </c>
-      <c r="D23" t="s">
-        <v>919</v>
-      </c>
-      <c r="E23" t="s">
-        <v>920</v>
-      </c>
-      <c r="F23" t="s">
-        <v>921</v>
-      </c>
-      <c r="K23" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>765</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>767</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>768</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>997</v>
-      </c>
-      <c r="H24" s="8"/>
-      <c r="K24" s="7" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>580</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>582</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="H25" s="8"/>
-      <c r="K25" s="7" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="H26" s="8"/>
-      <c r="K26" s="7" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="H27" s="8"/>
-      <c r="K27" s="7" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="H28" s="8"/>
-      <c r="K28" s="7" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="H29" s="8"/>
-      <c r="K29" s="7" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="H30" s="8"/>
-      <c r="K30" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="H31" s="8"/>
-      <c r="K31" s="7" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="D31" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H32" s="8"/>
-      <c r="K32" s="7" t="s">
+      <c r="E31" s="4" t="s">
         <v>177</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>1139</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="69.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="65.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8566,251 +8715,200 @@
         <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" t="s">
+        <v>909</v>
+      </c>
+      <c r="F2" t="s">
+        <v>910</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" t="s">
+        <v>912</v>
+      </c>
+      <c r="F3" t="s">
+        <v>913</v>
+      </c>
+      <c r="G3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>915</v>
+      </c>
+      <c r="F4" t="s">
+        <v>916</v>
+      </c>
+      <c r="G4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="B5" t="s">
+        <v>918</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" t="s">
+        <v>919</v>
+      </c>
+      <c r="F5" t="s">
+        <v>920</v>
+      </c>
+      <c r="G5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="E6" t="s">
         <v>923</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="F6" t="s">
         <v>924</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B7" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" t="s">
         <v>926</v>
       </c>
-      <c r="D2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F7" t="s">
         <v>927</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B8" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" t="s">
         <v>929</v>
       </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="F8" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="G8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B9" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s">
         <v>932</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F9" t="s">
         <v>933</v>
       </c>
-      <c r="F3" t="s">
-        <v>934</v>
-      </c>
-      <c r="G3" t="s">
-        <v>935</v>
-      </c>
-      <c r="H3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I3" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>936</v>
-      </c>
-      <c r="B4" t="s">
-        <v>937</v>
-      </c>
-      <c r="E4" t="s">
-        <v>938</v>
-      </c>
-      <c r="F4" t="s">
-        <v>939</v>
-      </c>
-      <c r="G4" t="s">
-        <v>940</v>
-      </c>
-      <c r="H4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I4" t="s">
-        <v>930</v>
-      </c>
-      <c r="J4" t="s">
-        <v>941</v>
-      </c>
-      <c r="K4" t="s">
-        <v>942</v>
-      </c>
-      <c r="L4" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>944</v>
-      </c>
-      <c r="B5" t="s">
-        <v>945</v>
-      </c>
-      <c r="C5" t="s">
-        <v>946</v>
-      </c>
-      <c r="E5" t="s">
-        <v>947</v>
-      </c>
-      <c r="F5" t="s">
-        <v>948</v>
-      </c>
-      <c r="G5" t="s">
-        <v>949</v>
-      </c>
-      <c r="H5" t="s">
-        <v>356</v>
-      </c>
-      <c r="I5" t="s">
-        <v>930</v>
-      </c>
-      <c r="J5" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="B6" t="s">
-        <v>952</v>
-      </c>
-      <c r="C6" t="s">
-        <v>953</v>
-      </c>
-      <c r="D6" t="s">
-        <v>954</v>
-      </c>
-      <c r="F6" t="s">
-        <v>955</v>
-      </c>
-      <c r="G6" t="s">
-        <v>956</v>
-      </c>
-      <c r="H6" t="s">
-        <v>300</v>
-      </c>
-      <c r="I6" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="B7" t="s">
-        <v>958</v>
-      </c>
-      <c r="C7" t="s">
-        <v>959</v>
-      </c>
-      <c r="D7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" t="s">
-        <v>960</v>
-      </c>
-      <c r="F7" t="s">
-        <v>961</v>
-      </c>
-      <c r="G7" t="s">
-        <v>962</v>
-      </c>
-      <c r="H7" t="s">
-        <v>391</v>
-      </c>
-      <c r="I7" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="B8" t="s">
-        <v>964</v>
-      </c>
-      <c r="D8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" t="s">
-        <v>965</v>
-      </c>
-      <c r="F8" t="s">
-        <v>966</v>
-      </c>
-      <c r="G8" t="s">
-        <v>967</v>
-      </c>
-      <c r="H8" t="s">
-        <v>158</v>
-      </c>
-      <c r="I8" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>968</v>
-      </c>
-      <c r="B9" t="s">
-        <v>969</v>
-      </c>
-      <c r="D9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" t="s">
-        <v>970</v>
-      </c>
-      <c r="F9" t="s">
-        <v>971</v>
-      </c>
       <c r="G9" t="s">
-        <v>972</v>
-      </c>
-      <c r="H9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I9" t="s">
-        <v>930</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -8820,10 +8918,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8836,7 +8934,7 @@
     <col min="7" max="7" width="40.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8853,145 +8951,137 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>973</v>
+        <v>934</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>974</v>
+        <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1</v>
+        <v>935</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>975</v>
+        <v>936</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>976</v>
-      </c>
-      <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>977</v>
+        <v>937</v>
       </c>
       <c r="B2" t="s">
-        <v>978</v>
+        <v>938</v>
       </c>
       <c r="C2" t="s">
-        <v>979</v>
+        <v>939</v>
       </c>
       <c r="D2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E2" t="s">
-        <v>980</v>
+        <v>940</v>
       </c>
       <c r="F2" t="s">
-        <v>981</v>
+        <v>941</v>
       </c>
       <c r="G2" t="s">
-        <v>982</v>
+        <v>942</v>
       </c>
       <c r="H2" t="s">
-        <v>983</v>
-      </c>
-      <c r="I2" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>985</v>
+        <v>944</v>
       </c>
       <c r="B3" t="s">
-        <v>986</v>
+        <v>945</v>
       </c>
       <c r="C3" t="s">
-        <v>987</v>
+        <v>946</v>
       </c>
       <c r="D3" t="s">
-        <v>391</v>
+        <v>387</v>
+      </c>
+      <c r="H3" t="s">
+        <v>943</v>
       </c>
       <c r="I3" t="s">
-        <v>984</v>
-      </c>
-      <c r="J3" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>989</v>
+        <v>948</v>
       </c>
       <c r="B4" t="s">
-        <v>990</v>
+        <v>949</v>
       </c>
       <c r="C4" t="s">
-        <v>991</v>
+        <v>950</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>943</v>
       </c>
       <c r="I4" t="s">
-        <v>984</v>
+        <v>951</v>
       </c>
       <c r="J4" t="s">
-        <v>992</v>
+        <v>952</v>
       </c>
       <c r="K4" t="s">
-        <v>993</v>
+        <v>953</v>
       </c>
       <c r="L4" t="s">
-        <v>994</v>
+        <v>949</v>
       </c>
       <c r="M4" t="s">
-        <v>990</v>
-      </c>
-      <c r="N4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="G10" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="G11" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="3" t="s">
-        <v>255</v>
-      </c>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E6" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DATA/library.xlsx
+++ b/DATA/library.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="articles" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="1159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="1326">
   <si>
     <t>author</t>
   </si>
@@ -3499,6 +3499,507 @@
   </si>
   <si>
     <t>Amsterdam, Netherlands</t>
+  </si>
+  <si>
+    <t>shao_2023</t>
+  </si>
+  <si>
+    <t>10.3390/ma16072726</t>
+  </si>
+  <si>
+    <t>Materials</t>
+  </si>
+  <si>
+    <t>{Single-Camera Three-Dimensional Digital Image Correlation with Enhanced Accuracy Based on Four-View Imaging}</t>
+  </si>
+  <si>
+    <t>mastrodicasa_2025</t>
+  </si>
+  <si>
+    <t>10.1016/j.ymssp.2025.112387</t>
+  </si>
+  <si>
+    <t>{3D-DIC full field experimental modal analysis of a demo airplane by using low-speed cameras and a reconstruction approach}</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>poozesh_2017_2</t>
+  </si>
+  <si>
+    <t>10.1016/j.measurement.2017.06.030</t>
+  </si>
+  <si>
+    <t>134-145</t>
+  </si>
+  <si>
+    <t>{Modal parameter estimation from optically-measured data using a hybrid output-only system identification method}</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>tong_2013</t>
+  </si>
+  <si>
+    <t>W. Tong</t>
+  </si>
+  <si>
+    <t>10.1111/str.12039</t>
+  </si>
+  <si>
+    <t>313-334</t>
+  </si>
+  <si>
+    <t>{Formulation of Lucas-Kanade digital image correlation algorithms for non-contact deformation measurements: A review}</t>
+  </si>
+  <si>
+    <t>masmeijer_2025</t>
+  </si>
+  <si>
+    <t>10.1016/j.ymssp.2024.112080</t>
+  </si>
+  <si>
+    <t>{Directional DIC method with automatic feature selection}</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>fuchs_2010</t>
+  </si>
+  <si>
+    <t>10.1016/j.cag.2010.05.017</t>
+  </si>
+  <si>
+    <t>Computers and Graphics (Pergamon)</t>
+  </si>
+  <si>
+    <t>575-584</t>
+  </si>
+  <si>
+    <t>{Real-time temporal shaping of high-speed video streams}</t>
+  </si>
+  <si>
+    <t>ebrahim_2015</t>
+  </si>
+  <si>
+    <t>10.21275/SUB158346</t>
+  </si>
+  <si>
+    <t>International Journal of Science and Research</t>
+  </si>
+  <si>
+    <t>323-331</t>
+  </si>
+  <si>
+    <t>{3D Laser Scanners' Techniques Overview}</t>
+  </si>
+  <si>
+    <t>rocchini_2001</t>
+  </si>
+  <si>
+    <t>10.1111/1467-8659.00522</t>
+  </si>
+  <si>
+    <t>Computer Graphics Forum</t>
+  </si>
+  <si>
+    <t>299-308</t>
+  </si>
+  <si>
+    <t>{A low cost 3D scanner based on structured light}</t>
+  </si>
+  <si>
+    <t>ullman_1979</t>
+  </si>
+  <si>
+    <t>S. Ullman</t>
+  </si>
+  <si>
+    <t>10.1098/rspb.1979.0006</t>
+  </si>
+  <si>
+    <t>405-426</t>
+  </si>
+  <si>
+    <t>{The interpretation of structure from motion.}</t>
+  </si>
+  <si>
+    <t>pan_2013</t>
+  </si>
+  <si>
+    <t>B. Pan and K. Li and W. Tong</t>
+  </si>
+  <si>
+    <t>10.1007/s11340-013-9717-6</t>
+  </si>
+  <si>
+    <t>1277-1289</t>
+  </si>
+  <si>
+    <t>{Fast, Robust and Accurate Digital Image Correlation Calculation Without Redundant Computations}</t>
+  </si>
+  <si>
+    <t>ozyesil_2017</t>
+  </si>
+  <si>
+    <t>10.1017/S096249291700006X</t>
+  </si>
+  <si>
+    <t>305-364</t>
+  </si>
+  <si>
+    <t>{A Survey of Structure from Motion}</t>
+  </si>
+  <si>
+    <t>snavely_2006</t>
+  </si>
+  <si>
+    <t>10.1145/1141911.1141964</t>
+  </si>
+  <si>
+    <t>835-846</t>
+  </si>
+  <si>
+    <t>{Photo Tourism: Exploring Photo Collections in 3D}</t>
+  </si>
+  <si>
+    <t>seitz_1999</t>
+  </si>
+  <si>
+    <t>10.1023/A:1008176507526</t>
+  </si>
+  <si>
+    <t>151-173</t>
+  </si>
+  <si>
+    <t>{Photorealistic Scene Reconstruction by Voxel Coloring}</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>fua_1995</t>
+  </si>
+  <si>
+    <t>10.1007/BF01428192</t>
+  </si>
+  <si>
+    <t>35-56</t>
+  </si>
+  <si>
+    <t>{Object-Centered Surface Reconstruction: Combining Multi-Image Stereo and Shading}</t>
+  </si>
+  <si>
+    <t>wang_2021</t>
+  </si>
+  <si>
+    <t>10.1016/j.displa.2021.102102</t>
+  </si>
+  <si>
+    <t>Displays</t>
+  </si>
+  <si>
+    <t>102102</t>
+  </si>
+  <si>
+    <t>{Multi-view stereo in the Deep Learning Era: A comprehensive revfiew}</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>mildenhall_2020</t>
+  </si>
+  <si>
+    <t>10.48550/arXiv.2003.08934</t>
+  </si>
+  <si>
+    <t>99-106</t>
+  </si>
+  <si>
+    <t>{NeRF: Representing Scenes as Neural Radiance Fields for View Synthesis}</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>X. Shao and J. Qu and W. Chen</t>
+  </si>
+  <si>
+    <t>D. Mastrodicasa and E. Di Lorenzo and S. Manzato and B. Peeters and P. Guillaume</t>
+  </si>
+  <si>
+    <t>P. Poozesh and A. Sarrafi and Z. Mao and C. Niezrecki</t>
+  </si>
+  <si>
+    <t>T. Masmeijer and E. Habtour and K. Zaletelj and J. Slavič</t>
+  </si>
+  <si>
+    <t>M. Fuchs and T. Chen and O. Wang and R. Raskar and H. P. Seidel and H. P. A. Lensch</t>
+  </si>
+  <si>
+    <t>M. A.-B. Ebrahim</t>
+  </si>
+  <si>
+    <t>C. Rocchini and P. Cignoni and C. Montani and P. Pingi and R. Scopigno</t>
+  </si>
+  <si>
+    <t>O. Ozyesil and V. Voroninski and R. Basri and A. Singer</t>
+  </si>
+  <si>
+    <t>N. Snavely and S. M Seitz and R. Szeliski</t>
+  </si>
+  <si>
+    <t>S. M. Seitz and C. R. Dyer</t>
+  </si>
+  <si>
+    <t>P. Fua and Y. G. Leclerc</t>
+  </si>
+  <si>
+    <t>X. Wang and C. Wang and B. Liu and X. Zhou and L. Zhang and J. Zheng and X. Bai</t>
+  </si>
+  <si>
+    <t>B. Mildenhall and P. P. Srinivasan and M. Tancik and J. T. Barron and R. Ramamoorthi and R. Ng</t>
+  </si>
+  <si>
+    <t>Paris, France</t>
+  </si>
+  <si>
+    <t>International Conference on Computer Vision</t>
+  </si>
+  <si>
+    <t>10.1109/ICCV51070.2023.00902</t>
+  </si>
+  <si>
+    <t>{3D Motion Magnification: Visualizing Subtle Motions with Time Varying Radiance Fields}</t>
+  </si>
+  <si>
+    <t>9803-9812</t>
+  </si>
+  <si>
+    <t>feng_2023</t>
+  </si>
+  <si>
+    <t>10.1109/CVPR.2006.199</t>
+  </si>
+  <si>
+    <t>{Multi-View Stereo Revisited}</t>
+  </si>
+  <si>
+    <t>2402-2409</t>
+  </si>
+  <si>
+    <t>goesele_2006</t>
+  </si>
+  <si>
+    <t>Proceedings - 30th IEEE Conference on Computer Vision and Pattern Recognition, CVPR 2017</t>
+  </si>
+  <si>
+    <t>10.1109/CVPR.2017.482</t>
+  </si>
+  <si>
+    <t>{Semantic multi-view stereo: Jointly estimating objects and voxels}</t>
+  </si>
+  <si>
+    <t>4531-4540</t>
+  </si>
+  <si>
+    <t>ulusoy_2017</t>
+  </si>
+  <si>
+    <t>Corfu, Greece</t>
+  </si>
+  <si>
+    <t>Vision Algorithms: Theory and Practice: International Workshop on Vision Algorithms</t>
+  </si>
+  <si>
+    <t>{10.1007/3-540-44480-7_21}</t>
+  </si>
+  <si>
+    <t>{Bundle Adjustment-A Modern Synthesis}</t>
+  </si>
+  <si>
+    <t>298-372</t>
+  </si>
+  <si>
+    <t>triggs_2000</t>
+  </si>
+  <si>
+    <t>Milan, Italy</t>
+  </si>
+  <si>
+    <t>Computer Vision -- ECCV 2024</t>
+  </si>
+  <si>
+    <t>10.48550/arXiv.2407.20219</t>
+  </si>
+  <si>
+    <t>{Global Structure-from-Motion Revisited}</t>
+  </si>
+  <si>
+    <t>58-77</t>
+  </si>
+  <si>
+    <t>pan_2024</t>
+  </si>
+  <si>
+    <t>Proceedings of the IEEE/CVF conference on computer vision and pattern recognition</t>
+  </si>
+  <si>
+    <t>10.48550/arXiv.2312.04563</t>
+  </si>
+  <si>
+    <t>{Visual Geometry Grounded Deep Structure From Motion}</t>
+  </si>
+  <si>
+    <t>21686-21697</t>
+  </si>
+  <si>
+    <t>wang_2024_2</t>
+  </si>
+  <si>
+    <t>Proceedings of the IEEE/CVF Conference on Computer Vision and Pattern Recoginition</t>
+  </si>
+  <si>
+    <t>10.48550/arXiv.2312.14132</t>
+  </si>
+  <si>
+    <t>{DUSt3R: Geometric 3D Vision Made Easy}</t>
+  </si>
+  <si>
+    <t>20697-20709</t>
+  </si>
+  <si>
+    <t>wang_2024</t>
+  </si>
+  <si>
+    <t>Proceedings of the IEEE International Conference on Computer Vision</t>
+  </si>
+  <si>
+    <t>10.1109/ICCV.2013.403</t>
+  </si>
+  <si>
+    <t>{Global fusion of relative motions for robust, accurate and scalable structure from motion}</t>
+  </si>
+  <si>
+    <t>3248-3255</t>
+  </si>
+  <si>
+    <t>moulon_2013</t>
+  </si>
+  <si>
+    <t>Colorado Springs, CO, USA</t>
+  </si>
+  <si>
+    <t>CVPR 2011</t>
+  </si>
+  <si>
+    <t>10.1109/CVPR.2011.5995626</t>
+  </si>
+  <si>
+    <t>{Discrete-Continuous Optimization for Large-Scale Structure from Motion}</t>
+  </si>
+  <si>
+    <t>3001-3008</t>
+  </si>
+  <si>
+    <t>crandall_2011</t>
+  </si>
+  <si>
+    <t>{10.1007/978-3-031-72764-1_15}</t>
+  </si>
+  <si>
+    <t>{Robust Incremental Structure-from-Motion with Hybrid Features}</t>
+  </si>
+  <si>
+    <t>249-269</t>
+  </si>
+  <si>
+    <t>liu_2025</t>
+  </si>
+  <si>
+    <t>{Industrial Computed Tomography in Reverse Engineering Applications}</t>
+  </si>
+  <si>
+    <t>45-53</t>
+  </si>
+  <si>
+    <t>flisch_1999</t>
+  </si>
+  <si>
+    <t>San Francisco, CA, USA</t>
+  </si>
+  <si>
+    <t>2010 IEEE Conference on Computer Vision and Pattern Recognition</t>
+  </si>
+  <si>
+    <t>{3D Shape Scanning with a Time-of-Flight Camera}</t>
+  </si>
+  <si>
+    <t>1173-1180</t>
+  </si>
+  <si>
+    <t>Y. Cui and S. Schuon and D. Chan and S. Thrun and C. Theobalt</t>
+  </si>
+  <si>
+    <t>cui_2010</t>
+  </si>
+  <si>
+    <t>A. Flisch and J. Wirth and R. Zanini and M. Breitenstein and A. Rudin and F. Wendt and F. Mnich and R. Golz</t>
+  </si>
+  <si>
+    <t>S. Liu and Y. Gao and T. Zhang and R. Pautrat and J. L. Schönberger and V. Larsson and M. Pollefeys</t>
+  </si>
+  <si>
+    <t>D. Crandall and A. Owens and N. Snavely and D. Huttenlocher</t>
+  </si>
+  <si>
+    <t>P. Moulon and P. Monasse and R. Marlet</t>
+  </si>
+  <si>
+    <t>S. Wang and V. Leroy and Y. Cabon and B. Chidlovskii and J. Revaud</t>
+  </si>
+  <si>
+    <t>J. Wang and N. Karaev and C. Rupprecht and D. Novotny</t>
+  </si>
+  <si>
+    <t>L. Pan and D. Baráth and M. Pollefeys and J. L. Schönberger</t>
+  </si>
+  <si>
+    <t>B. Triggs and P. F. Mclauchlan and R. I. Hartley and A. W. Fitzgibbon</t>
+  </si>
+  <si>
+    <t>A. O. Ulusoy and M. J. Black and A. Geiger</t>
+  </si>
+  <si>
+    <t>M. Goesele and B. Curless and S. M. Seitz</t>
+  </si>
+  <si>
+    <t>B. Y. Feng and H. Alzayer and M. Rubinstein and W. T. Freeman and J.-B. Huang</t>
+  </si>
+  <si>
+    <t>Proceedings of the Royal Society of London. Series B, Containing papers of a Biological character</t>
+  </si>
+  <si>
+    <t>10.1109/CVPR.2010.5540082</t>
+  </si>
+  <si>
+    <t>Proceedings BB 67-CD</t>
+  </si>
+  <si>
+    <t>Sydney, Australia</t>
+  </si>
+  <si>
+    <t>Honolulu, HI, USA</t>
+  </si>
+  <si>
+    <t>key</t>
   </si>
 </sst>
 </file>
@@ -3526,12 +4027,24 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -3561,21 +4074,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Navadno" xfId="0" builtinId="0"/>
@@ -3878,10 +4399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I142"/>
+  <dimension ref="A1:I160"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F149" sqref="F149"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3894,6 +4415,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1325</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3920,3890 +4444,4423 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>977</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>977</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>977</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>978</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>979</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="7" t="s">
         <v>49</v>
       </c>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>980</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="7" t="s">
         <v>56</v>
       </c>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="7" t="s">
         <v>981</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="7" t="s">
         <v>982</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="7" t="s">
         <v>983</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="7" t="s">
         <v>961</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="8" t="s">
         <v>1090</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="7" t="s">
         <v>76</v>
       </c>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="7" t="s">
         <v>984</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="8">
         <v>8351</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="7" t="s">
         <v>985</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="7" t="s">
         <v>986</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="7" t="s">
         <v>987</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="8">
         <v>105907</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="7" t="s">
         <v>118</v>
       </c>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="7" t="s">
         <v>988</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="7" t="s">
         <v>959</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="7" t="s">
         <v>989</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="7" t="s">
         <v>960</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="7" t="s">
         <v>49</v>
       </c>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="7" t="s">
         <v>990</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="7" t="s">
         <v>991</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="8">
         <v>62001</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="7" t="s">
         <v>992</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="7" t="s">
         <v>993</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="7" t="s">
         <v>994</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="7" t="s">
         <v>165</v>
       </c>
+      <c r="I24" s="7"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="7" t="s">
         <v>996</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="7" t="s">
         <v>177</v>
       </c>
+      <c r="I26" s="7"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="7" t="s">
         <v>997</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="7" t="s">
         <v>998</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="7" t="s">
         <v>192</v>
       </c>
+      <c r="I28" s="7"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="7" t="s">
         <v>999</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="8">
         <v>2312</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="7" t="s">
         <v>1000</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D32" t="s">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="7" t="s">
         <v>963</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="7" t="s">
         <v>165</v>
       </c>
+      <c r="I33" s="7"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="7" t="s">
         <v>1001</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="7" t="s">
         <v>964</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="8" t="s">
         <v>1091</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="8">
         <v>60</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="7" t="s">
         <v>223</v>
       </c>
+      <c r="I34" s="7"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="7" t="s">
         <v>1002</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="7" t="s">
         <v>56</v>
       </c>
+      <c r="I35" s="7"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="7" t="s">
         <v>1003</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="7" t="s">
         <v>1004</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="7" t="s">
         <v>252</v>
       </c>
+      <c r="I39" s="7"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="7" t="s">
         <v>965</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="7" t="s">
         <v>966</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="8">
         <v>106536</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="7" t="s">
         <v>118</v>
       </c>
+      <c r="I41" s="7"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="9" t="s">
         <v>1111</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="7" t="s">
         <v>967</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="7" t="s">
         <v>968</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="8">
         <v>110686</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="8">
         <v>202</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="8">
         <v>2023</v>
       </c>
+      <c r="I42" s="7"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="7" t="s">
         <v>969</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="8">
         <v>41</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="7" t="s">
         <v>1006</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="8" t="s">
         <v>1092</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G44" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="7" t="s">
         <v>56</v>
       </c>
+      <c r="I44" s="7"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="7" t="s">
         <v>977</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G45" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="I45" s="7"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="7" t="s">
         <v>1007</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="G46" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="7" t="s">
         <v>1008</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="G47" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="7" t="s">
         <v>970</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G48" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="7" t="s">
         <v>1010</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="7" t="s">
         <v>971</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="G49" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="7" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="7" t="s">
         <v>1012</v>
       </c>
-      <c r="D50" t="s">
+      <c r="C50" s="7"/>
+      <c r="D50" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="G50" s="2"/>
-      <c r="H50" t="s">
+      <c r="G50" s="8"/>
+      <c r="H50" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="7" t="s">
         <v>1013</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="7" t="s">
         <v>972</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G51" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="7" t="s">
         <v>301</v>
       </c>
+      <c r="I51" s="7"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="7" t="s">
         <v>1014</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="G52" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="7" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="7" t="s">
         <v>954</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="G53" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="7" t="s">
         <v>1016</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="7" t="s">
         <v>973</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="G54" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="7" t="s">
         <v>334</v>
       </c>
+      <c r="I54" s="7"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="7" t="s">
         <v>1017</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="7" t="s">
         <v>974</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="G55" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55" s="7" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="G56" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I56" s="7" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="7" t="s">
         <v>1018</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="7" t="s">
         <v>975</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="G57" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I57" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="7" t="s">
         <v>1019</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="G58" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I58" s="7" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="7" t="s">
         <v>1022</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G59" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="7" t="s">
         <v>252</v>
       </c>
+      <c r="I59" s="7"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G60" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="7" t="s">
         <v>1023</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="7" t="s">
         <v>976</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="G61" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I61" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="7" t="s">
         <v>1024</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="G62" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I62" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="D63" t="s">
+      <c r="C63" s="7"/>
+      <c r="D63" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="G63" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" s="7" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="G64" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I64" s="7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="7" t="s">
         <v>1025</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="G65" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I65" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E66" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="G66" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I66" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="7" t="s">
         <v>1026</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E67" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="G67" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I67" s="7" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="7" t="s">
         <v>1027</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="8">
         <v>108422</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="G68" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="I68" s="7"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="7" t="s">
         <v>1028</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E69" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="G69" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I69" s="7" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="7" t="s">
         <v>1029</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="G70" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H70" s="7" t="s">
         <v>443</v>
       </c>
+      <c r="I70" s="7"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="7" t="s">
         <v>1030</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E71" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="G71" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H71" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I71" s="7" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E72" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="G72" s="2" t="s">
+      <c r="G72" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H72" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I72" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E73" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="G73" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H73" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I73" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="7" t="s">
         <v>1031</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E74" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="G74" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H74" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="I74" s="7"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="7" t="s">
         <v>1032</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="G75" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H75" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I75" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="7" t="s">
         <v>1033</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E76" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="G76" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H76" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I76" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="7" t="s">
         <v>1034</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E77" s="8" t="s">
         <v>478</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="G77" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H77" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="I77" s="7"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="7" t="s">
         <v>1035</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E78" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="G78" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H78" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="I78" s="7"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E79" s="8" t="s">
         <v>488</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="G79" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H79" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="I79" s="7"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="7" t="s">
         <v>1036</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E80" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="G80" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H80" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I80" t="s">
+      <c r="I80" s="7" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="7" t="s">
         <v>1037</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E81" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="G81" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H81" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="I81" s="7"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="7" t="s">
         <v>1038</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E82" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="G82" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H82" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="I82" s="7"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="7" t="s">
         <v>1039</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E83" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="G83" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H83" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="I83" s="7"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="7" t="s">
         <v>1040</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84" s="8">
         <v>2321</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="G84" s="8" t="s">
         <v>513</v>
       </c>
-      <c r="H84" t="s">
+      <c r="H84" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="I84" t="s">
+      <c r="I84" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="7" t="s">
         <v>1041</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E85" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="G85" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="H85" t="s">
+      <c r="H85" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="I85" s="7"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="7" t="s">
         <v>1042</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E86" s="8" t="s">
         <v>521</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="G86" s="2" t="s">
+      <c r="G86" s="8" t="s">
         <v>523</v>
       </c>
-      <c r="H86" t="s">
+      <c r="H86" s="7" t="s">
         <v>89</v>
       </c>
+      <c r="I86" s="7"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="E87" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="G87" s="2" t="s">
+      <c r="G87" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="H87" t="s">
+      <c r="H87" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I87" t="s">
+      <c r="I87" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E88" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="G88" s="2" t="s">
+      <c r="G88" s="8" t="s">
         <v>536</v>
       </c>
-      <c r="H88" t="s">
+      <c r="H88" s="7" t="s">
         <v>252</v>
       </c>
+      <c r="I88" s="7"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="7" t="s">
         <v>1043</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E89" s="8">
         <v>115809</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="G89" s="2" t="s">
+      <c r="G89" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="H89" t="s">
+      <c r="H89" s="7" t="s">
         <v>252</v>
       </c>
+      <c r="I89" s="7"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="E90" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="G90" s="2" t="s">
+      <c r="G90" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="H90" t="s">
+      <c r="H90" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="I90" s="7"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="7" t="s">
         <v>1044</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91" s="8">
         <v>109233</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="G91" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="H91" t="s">
+      <c r="H91" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="I91" s="7"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="7" t="s">
         <v>1045</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E92" s="8">
         <v>111869</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="G92" s="2" t="s">
+      <c r="G92" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="H92" t="s">
+      <c r="H92" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="I92" s="7"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="7" t="s">
         <v>1046</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E93" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="G93" s="2" t="s">
+      <c r="G93" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="H93" t="s">
+      <c r="H93" s="7" t="s">
         <v>252</v>
       </c>
+      <c r="I93" s="7"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="7" t="s">
         <v>1047</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="E94" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="G94" s="2" t="s">
+      <c r="G94" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H94" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="I94" s="7"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="7" t="s">
         <v>1048</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="E95" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="G95" s="2" t="s">
+      <c r="G95" s="8" t="s">
         <v>570</v>
       </c>
-      <c r="H95" t="s">
+      <c r="H95" s="7" t="s">
         <v>252</v>
       </c>
+      <c r="I95" s="7"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="E96" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="G96" s="2" t="s">
+      <c r="G96" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="H96" t="s">
+      <c r="H96" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="I96" s="7"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="7" t="s">
         <v>1050</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="E97" s="8" t="s">
         <v>583</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="G97" s="2" t="s">
+      <c r="G97" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H97" t="s">
+      <c r="H97" s="7" t="s">
         <v>297</v>
       </c>
+      <c r="I97" s="7"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="7" t="s">
         <v>1051</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E98" s="2">
+      <c r="E98" s="8">
         <v>106446</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="G98" s="2" t="s">
+      <c r="G98" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="H98" t="s">
+      <c r="H98" s="7" t="s">
         <v>118</v>
       </c>
+      <c r="I98" s="7"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="7" t="s">
         <v>1052</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="E99" s="8" t="s">
         <v>590</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="G99" s="2" t="s">
+      <c r="G99" s="8" t="s">
         <v>592</v>
       </c>
-      <c r="H99" t="s">
+      <c r="H99" s="7" t="s">
         <v>252</v>
       </c>
+      <c r="I99" s="7"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="7" t="s">
         <v>1053</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E100" s="2">
+      <c r="E100" s="8">
         <v>117112</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="G100" s="2" t="s">
+      <c r="G100" s="8" t="s">
         <v>596</v>
       </c>
-      <c r="H100" t="s">
+      <c r="H100" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="I100" s="7"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="E101" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="G101" s="2" t="s">
+      <c r="G101" s="8" t="s">
         <v>602</v>
       </c>
-      <c r="H101" t="s">
+      <c r="H101" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="I101" s="7"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="7" t="s">
         <v>1054</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E102" s="2">
+      <c r="E102" s="8">
         <v>117957</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="G102" s="2" t="s">
+      <c r="G102" s="8" t="s">
         <v>606</v>
       </c>
-      <c r="H102" t="s">
+      <c r="H102" s="7" t="s">
         <v>607</v>
       </c>
+      <c r="I102" s="7"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="6" t="s">
         <v>610</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="7" t="s">
         <v>1056</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="E103" s="8" t="s">
         <v>613</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="G103" s="2">
+      <c r="G103" s="8">
         <v>151</v>
       </c>
-      <c r="H103" t="s">
+      <c r="H103" s="7" t="s">
         <v>252</v>
       </c>
+      <c r="I103" s="7"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="7" t="s">
         <v>1057</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="E104" s="8" t="s">
         <v>618</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="G104" s="2" t="s">
+      <c r="G104" s="8" t="s">
         <v>620</v>
       </c>
-      <c r="H104" t="s">
+      <c r="H104" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="I104" t="s">
+      <c r="I104" s="7" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="7" t="s">
         <v>1058</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E105" s="2">
+      <c r="E105" s="8">
         <v>111336</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="G105" s="2" t="s">
+      <c r="G105" s="8" t="s">
         <v>624</v>
       </c>
-      <c r="H105" t="s">
+      <c r="H105" s="7" t="s">
         <v>607</v>
       </c>
+      <c r="I105" s="7"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="7" t="s">
         <v>1059</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="E106" s="8" t="s">
         <v>628</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="G106" s="2" t="s">
+      <c r="G106" s="8" t="s">
         <v>630</v>
       </c>
-      <c r="H106" t="s">
+      <c r="H106" s="7" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
+      <c r="I106" s="7"/>
+    </row>
+    <row r="107" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
         <v>631</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="7" t="s">
         <v>1060</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="D107" s="7" t="s">
         <v>1110</v>
       </c>
-      <c r="E107" s="5" t="s">
+      <c r="E107" s="8" t="s">
         <v>633</v>
       </c>
-      <c r="F107" s="4" t="s">
+      <c r="F107" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="G107" s="5" t="s">
+      <c r="G107" s="8" t="s">
         <v>630</v>
       </c>
-      <c r="H107" s="4" t="s">
+      <c r="H107" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="I107" s="4" t="s">
+      <c r="I107" s="7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="7" t="s">
         <v>636</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="7" t="s">
         <v>637</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="E108" s="8" t="s">
         <v>639</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="G108" s="2" t="s">
+      <c r="G108" s="8" t="s">
         <v>630</v>
       </c>
-      <c r="H108" t="s">
+      <c r="H108" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="I108" t="s">
+      <c r="I108" s="7" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="7" t="s">
         <v>1061</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="E109" s="8" t="s">
         <v>645</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" s="7" t="s">
         <v>646</v>
       </c>
-      <c r="G109" s="2" t="s">
+      <c r="G109" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="H109" t="s">
+      <c r="H109" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="I109" t="s">
+      <c r="I109" s="7" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="6" t="s">
         <v>648</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="7" t="s">
         <v>1062</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="E110" s="8" t="s">
         <v>650</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" s="7" t="s">
         <v>651</v>
       </c>
-      <c r="G110" s="2" t="s">
+      <c r="G110" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="H110" t="s">
+      <c r="H110" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="I110" t="s">
+      <c r="I110" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="6" t="s">
         <v>652</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="7" t="s">
         <v>1063</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="7" t="s">
         <v>653</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="E111" s="8" t="s">
         <v>655</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="G111" s="2" t="s">
+      <c r="G111" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="H111" t="s">
+      <c r="H111" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I111" t="s">
+      <c r="I111" s="7" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="6" t="s">
         <v>658</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="7" t="s">
         <v>1064</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="7" t="s">
         <v>659</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="7" t="s">
         <v>660</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="E112" s="8" t="s">
         <v>661</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" s="7" t="s">
         <v>662</v>
       </c>
-      <c r="G112" s="2" t="s">
+      <c r="G112" s="8" t="s">
         <v>583</v>
       </c>
-      <c r="H112" t="s">
+      <c r="H112" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="I112" t="s">
+      <c r="I112" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="6" t="s">
         <v>663</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="7" t="s">
         <v>1065</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="7" t="s">
         <v>664</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="7" t="s">
         <v>665</v>
       </c>
-      <c r="E113" s="2">
+      <c r="E113" s="8">
         <v>98</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113" s="7" t="s">
         <v>666</v>
       </c>
-      <c r="G113" s="2" t="s">
+      <c r="G113" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="H113" t="s">
+      <c r="H113" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I113" t="s">
+      <c r="I113" s="7" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="7" t="s">
         <v>1066</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="7" t="s">
         <v>668</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="7" t="s">
         <v>669</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="E114" s="8" t="s">
         <v>670</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114" s="7" t="s">
         <v>671</v>
       </c>
-      <c r="G114" s="2" t="s">
+      <c r="G114" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="H114" t="s">
+      <c r="H114" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="I114" t="s">
+      <c r="I114" s="7" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="7" t="s">
         <v>1067</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="7" t="s">
         <v>673</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="E115" s="8" t="s">
         <v>675</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115" s="7" t="s">
         <v>676</v>
       </c>
-      <c r="G115" s="2" t="s">
+      <c r="G115" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="H115" t="s">
+      <c r="H115" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="I115" t="s">
+      <c r="I115" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="6" t="s">
         <v>677</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="7" t="s">
         <v>1068</v>
       </c>
-      <c r="D116" t="s">
+      <c r="C116" s="7"/>
+      <c r="D116" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="E116" s="8" t="s">
         <v>678</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116" s="7" t="s">
         <v>679</v>
       </c>
-      <c r="G116" s="2" t="s">
+      <c r="G116" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H116" t="s">
+      <c r="H116" s="7" t="s">
         <v>680</v>
       </c>
+      <c r="I116" s="7"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="6" t="s">
         <v>681</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="7" t="s">
         <v>682</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="7" t="s">
         <v>684</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="E117" s="8" t="s">
         <v>685</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F117" s="7" t="s">
         <v>686</v>
       </c>
-      <c r="G117" s="2" t="s">
+      <c r="G117" s="8" t="s">
         <v>687</v>
       </c>
-      <c r="H117" t="s">
+      <c r="H117" s="7" t="s">
         <v>688</v>
       </c>
-      <c r="I117" t="s">
+      <c r="I117" s="7" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="6" t="s">
         <v>690</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="7" t="s">
         <v>1069</v>
       </c>
-      <c r="D118" t="s">
+      <c r="C118" s="7"/>
+      <c r="D118" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="E118" s="8" t="s">
         <v>691</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" s="7" t="s">
         <v>692</v>
       </c>
-      <c r="G118" s="2" t="s">
+      <c r="G118" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="H118" t="s">
+      <c r="H118" s="7" t="s">
         <v>124</v>
       </c>
+      <c r="I118" s="7"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="6" t="s">
         <v>693</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="7" t="s">
         <v>1070</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="7" t="s">
         <v>694</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="7" t="s">
         <v>695</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="E119" s="8" t="s">
         <v>696</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="7" t="s">
         <v>697</v>
       </c>
-      <c r="G119" s="2" t="s">
+      <c r="G119" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H119" t="s">
+      <c r="H119" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="I119" t="s">
+      <c r="I119" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="7" t="s">
         <v>1071</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="7" t="s">
         <v>699</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E120" s="2">
+      <c r="E120" s="8">
         <v>107456</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120" s="7" t="s">
         <v>700</v>
       </c>
-      <c r="G120" s="2" t="s">
+      <c r="G120" s="8" t="s">
         <v>701</v>
       </c>
-      <c r="H120" t="s">
+      <c r="H120" s="7" t="s">
         <v>89</v>
       </c>
+      <c r="I120" s="7"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="6" t="s">
         <v>702</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="7" t="s">
         <v>1072</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="7" t="s">
         <v>703</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="7" t="s">
         <v>669</v>
       </c>
-      <c r="E121" s="2" t="s">
+      <c r="E121" s="8" t="s">
         <v>704</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F121" s="7" t="s">
         <v>705</v>
       </c>
-      <c r="G121" s="2" t="s">
+      <c r="G121" s="8" t="s">
         <v>706</v>
       </c>
-      <c r="H121" t="s">
+      <c r="H121" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="I121" t="s">
+      <c r="I121" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="6" t="s">
         <v>707</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="7" t="s">
         <v>1073</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="7" t="s">
         <v>708</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="7" t="s">
         <v>709</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="E122" s="8" t="s">
         <v>710</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" s="7" t="s">
         <v>711</v>
       </c>
-      <c r="G122" s="2" t="s">
+      <c r="G122" s="8" t="s">
         <v>712</v>
       </c>
-      <c r="H122" t="s">
+      <c r="H122" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="I122" t="s">
+      <c r="I122" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="7" t="s">
         <v>1074</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="7" t="s">
         <v>714</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="E123" s="8" t="s">
         <v>715</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" s="7" t="s">
         <v>716</v>
       </c>
-      <c r="G123" s="2" t="s">
+      <c r="G123" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="H123" t="s">
+      <c r="H123" s="7" t="s">
         <v>387</v>
       </c>
+      <c r="I123" s="7"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="7" t="s">
         <v>718</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="7" t="s">
         <v>719</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="E124" s="8" t="s">
         <v>720</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="7" t="s">
         <v>721</v>
       </c>
-      <c r="G124" s="2" t="s">
+      <c r="G124" s="8" t="s">
         <v>722</v>
       </c>
-      <c r="H124" t="s">
+      <c r="H124" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I124" t="s">
+      <c r="I124" s="7" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="6" t="s">
         <v>723</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="7" t="s">
         <v>1075</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="7" t="s">
         <v>724</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="7" t="s">
         <v>725</v>
       </c>
-      <c r="E125" s="2">
+      <c r="E125" s="8">
         <v>102366</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F125" s="7" t="s">
         <v>726</v>
       </c>
-      <c r="G125" s="2" t="s">
+      <c r="G125" s="8" t="s">
         <v>727</v>
       </c>
-      <c r="H125" t="s">
+      <c r="H125" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="I125" s="7"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="6" t="s">
         <v>728</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="7" t="s">
         <v>1076</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="7" t="s">
         <v>729</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="7" t="s">
         <v>730</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="E126" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F126" s="7" t="s">
         <v>731</v>
       </c>
-      <c r="G126" s="2" t="s">
+      <c r="G126" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="H126" t="s">
+      <c r="H126" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="I126" t="s">
+      <c r="I126" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="6" t="s">
         <v>732</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="7" t="s">
         <v>1077</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="7" t="s">
         <v>733</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E127" s="2">
+      <c r="E127" s="8">
         <v>2314</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" s="7" t="s">
         <v>734</v>
       </c>
-      <c r="G127" s="2" t="s">
+      <c r="G127" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H127" t="s">
+      <c r="H127" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="I127" t="s">
+      <c r="I127" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="6" t="s">
         <v>735</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="7" t="s">
         <v>1078</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="7" t="s">
         <v>955</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="E128" s="8" t="s">
         <v>737</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F128" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="G128" s="2" t="s">
+      <c r="G128" s="8" t="s">
         <v>739</v>
       </c>
-      <c r="H128" t="s">
+      <c r="H128" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="I128" t="s">
+      <c r="I128" s="7" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="7" t="s">
         <v>1079</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="7" t="s">
         <v>741</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="7" t="s">
         <v>669</v>
       </c>
-      <c r="E129" s="2" t="s">
+      <c r="E129" s="8" t="s">
         <v>742</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" s="7" t="s">
         <v>743</v>
       </c>
-      <c r="G129" s="2" t="s">
+      <c r="G129" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="H129" t="s">
+      <c r="H129" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="I129" t="s">
+      <c r="I129" s="7" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="6" t="s">
         <v>744</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="7" t="s">
         <v>1080</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="7" t="s">
         <v>745</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="7" t="s">
         <v>746</v>
       </c>
-      <c r="E130" s="2" t="s">
+      <c r="E130" s="8" t="s">
         <v>747</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F130" s="7" t="s">
         <v>748</v>
       </c>
-      <c r="G130" s="2" t="s">
+      <c r="G130" s="8" t="s">
         <v>749</v>
       </c>
-      <c r="H130" t="s">
+      <c r="H130" s="7" t="s">
         <v>607</v>
       </c>
+      <c r="I130" s="7"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="6" t="s">
         <v>750</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="7" t="s">
         <v>1081</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="7" t="s">
         <v>751</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="7" t="s">
         <v>752</v>
       </c>
-      <c r="E131" s="2" t="s">
+      <c r="E131" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" s="7" t="s">
         <v>754</v>
       </c>
-      <c r="G131" s="2" t="s">
+      <c r="G131" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="H131" t="s">
+      <c r="H131" s="7" t="s">
         <v>56</v>
       </c>
+      <c r="I131" s="7"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="7" t="s">
         <v>1082</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="7" t="s">
         <v>756</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="7" t="s">
         <v>757</v>
       </c>
-      <c r="E132" s="2">
+      <c r="E132" s="8">
         <v>773</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F132" s="7" t="s">
         <v>758</v>
       </c>
-      <c r="G132" s="2" t="s">
+      <c r="G132" s="8" t="s">
         <v>583</v>
       </c>
-      <c r="H132" t="s">
+      <c r="H132" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="I132" t="s">
+      <c r="I132" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="6" t="s">
         <v>763</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="7" t="s">
         <v>1084</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="7" t="s">
         <v>764</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="7" t="s">
         <v>765</v>
       </c>
-      <c r="E133" s="2" t="s">
+      <c r="E133" s="8" t="s">
         <v>766</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F133" s="7" t="s">
         <v>767</v>
       </c>
-      <c r="G133" s="2" t="s">
+      <c r="G133" s="8" t="s">
         <v>768</v>
       </c>
-      <c r="H133" t="s">
+      <c r="H133" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I133" t="s">
+      <c r="I133" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="6" t="s">
         <v>769</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="7" t="s">
         <v>770</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="7" t="s">
         <v>771</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E134" s="2" t="s">
+      <c r="E134" s="8" t="s">
         <v>772</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F134" s="7" t="s">
         <v>773</v>
       </c>
-      <c r="G134" s="2" t="s">
+      <c r="G134" s="8" t="s">
         <v>774</v>
       </c>
-      <c r="H134" t="s">
+      <c r="H134" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="I134" t="s">
+      <c r="I134" s="7" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="6" t="s">
         <v>775</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="7" t="s">
         <v>1085</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="7" t="s">
         <v>957</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="E135" s="2" t="s">
+      <c r="E135" s="8" t="s">
         <v>776</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F135" s="7" t="s">
         <v>777</v>
       </c>
-      <c r="G135" s="2" t="s">
+      <c r="G135" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="H135" t="s">
+      <c r="H135" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="I135" t="s">
+      <c r="I135" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="7" t="s">
         <v>1086</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="7" t="s">
         <v>958</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E136" s="2" t="s">
+      <c r="E136" s="8" t="s">
         <v>1093</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F136" s="7" t="s">
         <v>779</v>
       </c>
-      <c r="G136" s="2">
+      <c r="G136" s="8">
         <v>33</v>
       </c>
-      <c r="H136" t="s">
+      <c r="H136" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="I136" t="s">
+      <c r="I136" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="6" t="s">
         <v>780</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="7" t="s">
         <v>1087</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="7" t="s">
         <v>781</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E137" s="2">
+      <c r="E137" s="8">
         <v>115012</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F137" s="7" t="s">
         <v>782</v>
       </c>
-      <c r="G137" s="2" t="s">
+      <c r="G137" s="8" t="s">
         <v>783</v>
       </c>
-      <c r="H137" t="s">
+      <c r="H137" s="7" t="s">
         <v>118</v>
       </c>
+      <c r="I137" s="7"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="6" t="s">
         <v>784</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="7" t="s">
         <v>1088</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="7" t="s">
         <v>785</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="7" t="s">
         <v>786</v>
       </c>
-      <c r="E138" s="2" t="s">
+      <c r="E138" s="8" t="s">
         <v>787</v>
       </c>
-      <c r="F138" t="s">
+      <c r="F138" s="7" t="s">
         <v>788</v>
       </c>
-      <c r="G138" s="2" t="s">
+      <c r="G138" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="H138" t="s">
+      <c r="H138" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="I138" t="s">
+      <c r="I138" s="7" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="6" t="s">
         <v>790</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="7" t="s">
         <v>791</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="7" t="s">
         <v>792</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E139" s="2" t="s">
+      <c r="E139" s="8" t="s">
         <v>793</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F139" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="G139" s="2" t="s">
+      <c r="G139" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="H139" t="s">
+      <c r="H139" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I139" t="s">
+      <c r="I139" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="6" t="s">
         <v>795</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="7" t="s">
         <v>796</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="7" t="s">
         <v>797</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E140" s="2" t="s">
+      <c r="E140" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F140" s="7" t="s">
         <v>799</v>
       </c>
-      <c r="G140" s="2" t="s">
+      <c r="G140" s="8" t="s">
         <v>800</v>
       </c>
-      <c r="H140" t="s">
+      <c r="H140" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I140" t="s">
+      <c r="I140" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="6" t="s">
         <v>801</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="7" t="s">
         <v>1089</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="7" t="s">
         <v>802</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E141" s="2" t="s">
+      <c r="E141" s="8" t="s">
         <v>803</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F141" s="7" t="s">
         <v>804</v>
       </c>
-      <c r="G141" s="2" t="s">
+      <c r="G141" s="8" t="s">
         <v>805</v>
       </c>
-      <c r="H141" t="s">
+      <c r="H141" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="I141" s="7"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="6" t="s">
         <v>814</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="7" t="s">
         <v>1095</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="7" t="s">
         <v>816</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E142" s="2">
+      <c r="E142" s="8">
         <v>1615</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F142" s="7" t="s">
         <v>815</v>
       </c>
-      <c r="G142" t="s">
+      <c r="G142" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H142" t="s">
+      <c r="H142" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I142" t="s">
+      <c r="I142" s="7" t="s">
         <v>38</v>
       </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E143" s="5">
+        <v>2726</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="I143" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E144" s="5">
+        <v>112387</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="I144" s="4"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>1171</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>1172</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I145" s="4"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="H146" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I146" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E147" s="5">
+        <v>112080</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="I147" s="4"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>1186</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="I148" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>1191</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="I149" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="I150" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>1206</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="H151" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I151" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="H152" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I152" s="4"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="H153" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I153" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>1219</v>
+      </c>
+      <c r="H154" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="I154" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="H155" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="I155" s="4"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>1228</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>1229</v>
+      </c>
+      <c r="H156" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I156" s="4"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H157" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I157" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="C158" s="7"/>
+      <c r="D158" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="E158" s="8"/>
+      <c r="F158" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="G158" s="7"/>
+      <c r="H158" s="8">
+        <v>2000</v>
+      </c>
+      <c r="I158" s="7"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C159" s="7"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="7"/>
+      <c r="F159" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="G159" s="7"/>
+      <c r="H159" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="I159" s="7"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B160" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7813,10 +8870,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7828,10 +8885,13 @@
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="101.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1325</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7858,831 +8918,1218 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>807</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>1036</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
         <v>808</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="7" t="s">
         <v>1112</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="8">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="7" t="s">
         <v>1113</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="7" t="s">
         <v>1118</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>809</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>1094</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>811</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="7" t="s">
         <v>812</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="7" t="s">
         <v>813</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="8">
         <v>10</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="7" t="s">
         <v>810</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="7" t="s">
         <v>1114</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>1096</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="7" t="s">
         <v>819</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="8" t="s">
         <v>1115</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="8">
         <v>4</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="7" t="s">
         <v>818</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="7" t="s">
         <v>1116</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>821</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="8">
         <v>72460</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="7" t="s">
         <v>823</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="7" t="s">
         <v>824</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="7" t="s">
         <v>822</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="7" t="s">
         <v>1117</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="6" t="s">
         <v>825</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>1097</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="7" t="s">
         <v>827</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="7" t="s">
         <v>828</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="7" t="s">
         <v>1119</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="10">
         <v>6</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="7" t="s">
         <v>826</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="7" t="s">
         <v>1120</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="6" t="s">
         <v>829</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>1098</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="7" t="s">
         <v>831</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="7" t="s">
         <v>832</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="7" t="s">
         <v>833</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="10">
         <v>7</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="7" t="s">
         <v>830</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="7" t="s">
         <v>1121</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="6" t="s">
         <v>834</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="7" t="s">
         <v>1099</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="7" t="s">
         <v>837</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="7" t="s">
         <v>1122</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="10">
         <v>6</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="7" t="s">
         <v>1123</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="6" t="s">
         <v>838</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="7" t="s">
         <v>1017</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="7" t="s">
         <v>840</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="7" t="s">
         <v>841</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="7" t="s">
         <v>842</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="7" t="s">
         <v>843</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="10">
         <v>3</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="7" t="s">
         <v>839</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="7" t="s">
         <v>1124</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="6" t="s">
         <v>844</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="7" t="s">
         <v>1100</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="7" t="s">
         <v>846</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="7" t="s">
         <v>847</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="7" t="s">
         <v>848</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="10">
         <v>5</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="7" t="s">
         <v>845</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="7" t="s">
         <v>1125</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="6" t="s">
         <v>849</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="7" t="s">
         <v>1101</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="7" t="s">
         <v>851</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="7" t="s">
         <v>852</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="7" t="s">
         <v>853</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" t="s">
+      <c r="G11" s="10"/>
+      <c r="H11" s="7" t="s">
         <v>850</v>
       </c>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="6" t="s">
         <v>854</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="7" t="s">
         <v>855</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="7" t="s">
         <v>856</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="7" t="s">
         <v>857</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="7" t="s">
         <v>858</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="10">
         <v>10</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="7" t="s">
         <v>859</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="7" t="s">
         <v>1126</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="6" t="s">
         <v>860</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="7" t="s">
         <v>1102</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="7" t="s">
         <v>861</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="7" t="s">
         <v>862</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="10">
         <v>6</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="7" t="s">
         <v>863</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="7" t="s">
         <v>1127</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="6" t="s">
         <v>864</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="7" t="s">
         <v>1103</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="7" t="s">
         <v>865</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="7" t="s">
         <v>866</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="8">
         <v>10</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="7" t="s">
         <v>868</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="7" t="s">
         <v>1128</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="6" t="s">
         <v>869</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="7" t="s">
         <v>1104</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="7" t="s">
         <v>870</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="7" t="s">
         <v>871</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="7" t="s">
         <v>872</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="10">
         <v>6</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="7" t="s">
         <v>1129</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="6" t="s">
         <v>874</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="7" t="s">
         <v>1105</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
         <v>875</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="G16" s="7">
+      <c r="F16" s="7"/>
+      <c r="G16" s="10">
         <v>2</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="7" t="s">
         <v>876</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="7" t="s">
         <v>1130</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="6" t="s">
         <v>877</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="7" t="s">
         <v>1072</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="7" t="s">
         <v>879</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="10">
         <v>6</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="7" t="s">
         <v>881</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="7" t="s">
         <v>1131</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="6" t="s">
         <v>882</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="7" t="s">
         <v>1106</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="7" t="s">
         <v>883</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="7" t="s">
         <v>884</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="7" t="s">
         <v>885</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="10">
         <v>6</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="7" t="s">
         <v>886</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="7" t="s">
         <v>1121</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="6" t="s">
         <v>887</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="7" t="s">
         <v>1107</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="7" t="s">
         <v>888</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="7" t="s">
         <v>889</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="10">
         <v>6</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="7" t="s">
         <v>891</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="7" t="s">
         <v>1120</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="6" t="s">
         <v>892</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="7" t="s">
         <v>1108</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="8">
         <v>13</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="7" t="s">
         <v>893</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="7" t="s">
         <v>894</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="10">
         <v>9</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="7" t="s">
         <v>895</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="7" t="s">
         <v>1132</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="6" t="s">
         <v>896</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="7" t="s">
         <v>1109</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="7" t="s">
         <v>897</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="7" t="s">
         <v>898</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="7" t="s">
         <v>899</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="7" t="s">
         <v>900</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="7" t="s">
         <v>1133</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="6" t="s">
         <v>901</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="7" t="s">
         <v>1001</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="7" t="s">
         <v>902</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="7" t="s">
         <v>903</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="7" t="s">
         <v>904</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="7" t="s">
         <v>905</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="10">
         <v>9</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="7" t="s">
         <v>906</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="7" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>759</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="7" t="s">
         <v>1083</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="8" t="s">
         <v>761</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="7" t="s">
         <v>762</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="7" t="s">
         <v>956</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="7" t="s">
         <v>760</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="7" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="7" t="s">
         <v>1049</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="8" t="s">
         <v>577</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="7" t="s">
         <v>1136</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="4" t="s">
+      <c r="G24" s="8"/>
+      <c r="H24" s="7" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="7" t="s">
         <v>1137</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="F25" s="7"/>
+      <c r="G25" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="7" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="7" t="s">
         <v>1020</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="4" t="s">
+      <c r="C26" s="8"/>
+      <c r="D26" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="4" t="s">
+      <c r="F26" s="7"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="7" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="7" t="s">
         <v>1021</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="7" t="s">
         <v>1140</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="7" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="7" t="s">
         <v>1011</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="8" t="s">
         <v>1141</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="F28" s="7"/>
+      <c r="G28" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="7" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="7" t="s">
         <v>1009</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="8" t="s">
         <v>1143</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="F29" s="7"/>
+      <c r="G29" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="7" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="7" t="s">
         <v>1005</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="4" t="s">
+      <c r="C30" s="8"/>
+      <c r="D30" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="F30" s="7"/>
+      <c r="G30" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="7" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="7" t="s">
         <v>995</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="F31" s="7"/>
+      <c r="G31" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="7" t="s">
         <v>1139</v>
       </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>1322</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>1296</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>1270</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>1292</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>1291</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>1285</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>1280</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>1270</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>1265</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>1264</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>1259</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>1258</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>1250</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>1249</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4" t="s">
+        <v>1320</v>
+      </c>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8694,12 +10141,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="69.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
@@ -8708,6 +10156,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1325</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8728,186 +10179,186 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>908</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>1146</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
         <v>1154</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="7" t="s">
         <v>909</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="7" t="s">
         <v>910</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>911</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>1147</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>1153</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="7" t="s">
         <v>912</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="7" t="s">
         <v>913</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="7" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="6" t="s">
         <v>914</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>1148</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="7" t="s">
         <v>1125</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="8">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="7" t="s">
         <v>915</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="7" t="s">
         <v>916</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="6" t="s">
         <v>917</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>918</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="7" t="s">
         <v>1155</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="7" t="s">
         <v>919</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="7" t="s">
         <v>920</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="7" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="6" t="s">
         <v>921</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>1149</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="7" t="s">
         <v>1156</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="8" t="s">
         <v>922</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="7" t="s">
         <v>923</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="7" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="6" t="s">
         <v>925</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>1150</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="7" t="s">
         <v>1157</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="7" t="s">
         <v>926</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="7" t="s">
         <v>927</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="7" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="7" t="s">
         <v>1151</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="7" t="s">
         <v>1158</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="7" t="s">
         <v>929</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="7" t="s">
         <v>930</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="7" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="6" t="s">
         <v>931</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="7" t="s">
         <v>1152</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="7" t="s">
         <v>1120</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="7" t="s">
         <v>932</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="7" t="s">
         <v>933</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="7" t="s">
         <v>70</v>
       </c>
     </row>
@@ -8920,8 +10371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8973,115 +10424,145 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>937</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>938</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
         <v>939</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="7" t="s">
         <v>940</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="7" t="s">
         <v>941</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="7" t="s">
         <v>942</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>944</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>945</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>946</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="H3" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
         <v>943</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="7" t="s">
         <v>947</v>
       </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="6" t="s">
         <v>948</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>949</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="7" t="s">
         <v>950</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H4" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7" t="s">
         <v>943</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="7" t="s">
         <v>951</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="7" t="s">
         <v>952</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="7" t="s">
         <v>953</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="7" t="s">
         <v>949</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="7" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="7" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>1055</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DATA/library.xlsx
+++ b/DATA/library.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="articles" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="books" sheetId="3" r:id="rId3"/>
     <sheet name="misc" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="1326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="1458">
   <si>
     <t>author</t>
   </si>
@@ -2397,9 +2397,6 @@
     <t>genovese_2013</t>
   </si>
   <si>
-    <t>K. Genovese and L. Casaletto and J. A. Rayas and V. Flores and Amalia Martinez</t>
-  </si>
-  <si>
     <t>10.1016/j.optlaseng.2012.10.001</t>
   </si>
   <si>
@@ -4000,13 +3997,412 @@
   </si>
   <si>
     <t>key</t>
+  </si>
+  <si>
+    <t>Cambridge University Press</t>
+  </si>
+  <si>
+    <t>{Multiple View Geometry in computer vision}</t>
+  </si>
+  <si>
+    <t>hartley_2003</t>
+  </si>
+  <si>
+    <t>R. Hartley and A. Zisserman</t>
+  </si>
+  <si>
+    <t>delsal_2021</t>
+  </si>
+  <si>
+    <t>R. Del Sal and L. Dal Bo and E. Turco and A. Fusiello and A. Zanarini and R. Rinaldo and P. Gardonio</t>
+  </si>
+  <si>
+    <t>garridojurado_2014</t>
+  </si>
+  <si>
+    <t>S. Garrido-Jurado and R. Muñoz-Salinas and F. J. Madrid-Cuevas and M. J. Marín-Jiménez</t>
+  </si>
+  <si>
+    <t>wang_2021_2</t>
+  </si>
+  <si>
+    <t>R. Wang and A. C. Law and D. Garcia and S. Yang and Z. Kong</t>
+  </si>
+  <si>
+    <t>li_2023</t>
+  </si>
+  <si>
+    <t>M. Z. Li and G. Liu and Z. Mao and Q. S. Yang and J. W. Gu</t>
+  </si>
+  <si>
+    <t>jiang_2024</t>
+  </si>
+  <si>
+    <t>T. Jiang and G. T. Frøseth and S. Wang and Ø. W. Petersen and A. Rønnquist</t>
+  </si>
+  <si>
+    <t>lee_2023</t>
+  </si>
+  <si>
+    <t>H. Lee and H. Yoon and S. Kim</t>
+  </si>
+  <si>
+    <t>cheng_2025</t>
+  </si>
+  <si>
+    <t>Y. Cheng and Z. Tian and D. Ning and K. Feng and Z. Li and S. Chauhan and G. Vashishtha</t>
+  </si>
+  <si>
+    <t>yang_2025</t>
+  </si>
+  <si>
+    <t>X. Yang and P. Yan and X. Liu and W. Lu and X. Zhang and M. Chen and G. Wang</t>
+  </si>
+  <si>
+    <t>javed_2023</t>
+  </si>
+  <si>
+    <t>A. Javed and J. Park and H. Lee and Y. Han</t>
+  </si>
+  <si>
+    <t>luan_2023</t>
+  </si>
+  <si>
+    <t>L. Luan and Y. Liu and H. Sun</t>
+  </si>
+  <si>
+    <t>zhang_2023</t>
+  </si>
+  <si>
+    <t>W. Zhang and M. Xu and T. Yuan and W. Li and X. Dai and Z. Zhang and H. Yun and Y. Wang</t>
+  </si>
+  <si>
+    <t>T. Willems and F. Simeon Egner and Y. Wang and M. Kirchner and W. Desmet and F. Naets</t>
+  </si>
+  <si>
+    <t>zhu_2023</t>
+  </si>
+  <si>
+    <t>R. Zhu and D. Jiang and Z. Huang and L. Xie and D. Zhang and Q. Fei</t>
+  </si>
+  <si>
+    <t>wang_2023</t>
+  </si>
+  <si>
+    <t>Y. Wang and F. S. Egner and T. Willems and F. Naets and M. Kirchner</t>
+  </si>
+  <si>
+    <t>baldini_2025</t>
+  </si>
+  <si>
+    <t>S. Baldini and G. Guernieri and D. Gorjup and P. Gardonio and J. Slavič and R. Rinaldo</t>
+  </si>
+  <si>
+    <t>miao_2023</t>
+  </si>
+  <si>
+    <t>Y. Miao and Y. Kong and H. Nam and S. Lee and G. Park</t>
+  </si>
+  <si>
+    <t>xiong_2025</t>
+  </si>
+  <si>
+    <t>X. Xiong and L. Liu and M. Dang and L. Liang and Z. Zhong and B. Liu and H. Zhang and L. Yu and M. Shan</t>
+  </si>
+  <si>
+    <t>xie_2025</t>
+  </si>
+  <si>
+    <t>K. Xie and L. Cheng</t>
+  </si>
+  <si>
+    <t>lin_2024</t>
+  </si>
+  <si>
+    <t>G. Lin and Z. Rong Lu and J. Liu and L. Wang</t>
+  </si>
+  <si>
+    <t>zang_2025</t>
+  </si>
+  <si>
+    <t>Z. Zang and X. Yang and G. Zhang and S. Li and J. Chen</t>
+  </si>
+  <si>
+    <t>furman_2024</t>
+  </si>
+  <si>
+    <t>B. A. Furman and B. D. Hill and J. R. Rigby and J. M. Wagner and R. B. Berke</t>
+  </si>
+  <si>
+    <t>yi_2025</t>
+  </si>
+  <si>
+    <t>J. Yi and X. Kong and J. Li and J. Hu and L. Deng</t>
+  </si>
+  <si>
+    <t>10.1016/j.ymssp.2021.107742</t>
+  </si>
+  <si>
+    <t>10.1016/j.patcog.2014.01.005</t>
+  </si>
+  <si>
+    <t>10.1007/s00170-021-07780-2/Published</t>
+  </si>
+  <si>
+    <t>10.1016/j.ymssp.2022.110044</t>
+  </si>
+  <si>
+    <t>10.1016/j.ymssp.2024.111148</t>
+  </si>
+  <si>
+    <t>10.1016/j.engstruct.2023.116567</t>
+  </si>
+  <si>
+    <t>10.1016/j.measurement.2024.116426</t>
+  </si>
+  <si>
+    <t>10.1016/j.measurement.2025.116909</t>
+  </si>
+  <si>
+    <t>10.1016/j.jsv.2022.117540</t>
+  </si>
+  <si>
+    <t>10.1016/j.jsv.2023.117904</t>
+  </si>
+  <si>
+    <t>10.1515/rams-2023-0136</t>
+  </si>
+  <si>
+    <t>10.1016/j.measurement.2023.112567</t>
+  </si>
+  <si>
+    <t>10.1016/j.ymssp.2023.110763</t>
+  </si>
+  <si>
+    <t>10.1016/j.ymssp.2025.112400</t>
+  </si>
+  <si>
+    <t>10.1016/j.ymssp.2023.110418</t>
+  </si>
+  <si>
+    <t>10.1016/j.ymssp.2025.112746</t>
+  </si>
+  <si>
+    <t>10.1016/j.ymssp.2025.112324</t>
+  </si>
+  <si>
+    <t>10.1016/j.jsv.2023.118140</t>
+  </si>
+  <si>
+    <t>10.1016/j.measurement.2024.115559</t>
+  </si>
+  <si>
+    <t>10.1016/j.jsv.2024.118478</t>
+  </si>
+  <si>
+    <t>10.1016/j.ymssp.2025.112321</t>
+  </si>
+  <si>
+    <t>The International Journal of Advanced Manufacturing Technology</t>
+  </si>
+  <si>
+    <t>Reviews on Advanced Materials Science</t>
+  </si>
+  <si>
+    <t>2280-2292</t>
+  </si>
+  <si>
+    <t>845-862</t>
+  </si>
+  <si>
+    <t>{Structural vibration measurement with multiple synchronous cameras}</t>
+  </si>
+  <si>
+    <t>{Automatic generation and detection of highly reliable fiducial markers under occlusion}</t>
+  </si>
+  <si>
+    <t>{Development of structured light 3D-scanner with high spatial resolution and its applications for additive manufacturing quality assurance}</t>
+  </si>
+  <si>
+    <t>{Two-dimensional motion estimation using phase-based image processing with Riesz transform}</t>
+  </si>
+  <si>
+    <t>{A 6-DOF camera motion correction method using IMU sensors for photogrammetry and optical measurements}</t>
+  </si>
+  <si>
+    <t>{Vibration detection of stay-cable from low-quality CCTV images using deep-learning-based dehazing and semantic segmentation algorithms}</t>
+  </si>
+  <si>
+    <t>{Computer vision-based non-contact structural vibration measurement: Methods, challenges and opportunities}</t>
+  </si>
+  <si>
+    <t>{A novel 3D vibration monitoring method using a monocular camera and phase difference Gradient-based algorithm}</t>
+  </si>
+  <si>
+    <t>{Vibration signal separation of rotating cylindrical structure through target-less photogrammetric approach}</t>
+  </si>
+  <si>
+    <t>{Extracting high-precision full-field displacement from videos via pixel matching and optical flow}</t>
+  </si>
+  <si>
+    <t>{Dual-biprism-based single-camera high-speed 3D-digital image correlation for deformation measurement on sandwich structures under low velocity impact}</t>
+  </si>
+  <si>
+    <t>{Full-field modal identification using reliability-guided frequency-domain-based digital image correlation method based on multi-camera system}</t>
+  </si>
+  <si>
+    <t>{Using multi-sine excitation and rigid body motion compensation in randomly sampled camera-based experimental modal analysis to improve SNR}</t>
+  </si>
+  <si>
+    <t>{3D sound radiation reconstruction from camera measurements}</t>
+  </si>
+  <si>
+    <t>{Phase-based vibration imaging for structural dynamics applications: Marker-free full-field displacement measurements with confidence measures}</t>
+  </si>
+  <si>
+    <t>{Full-field detection of multi-band structural vibration mode shapes using undersampled video}</t>
+  </si>
+  <si>
+    <t>{A novel two-dimensional Hilbert transform method for structural vibration measurement and modal analysis}</t>
+  </si>
+  <si>
+    <t>{Monocular out-of-plane vibration measurement using parametric homography}</t>
+  </si>
+  <si>
+    <t>{Video-based subtle vibration measurement in the presence of large motions}</t>
+  </si>
+  <si>
+    <t>{Sensor synchronized DIC: A robust approach to linear and nonlinear modal analysis using low frame rate cameras}</t>
+  </si>
+  <si>
+    <t>{Full-field modal identification of cables based on subpixel edge detection and dual matching tracking method}</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>547</t>
+  </si>
+  <si>
+    <t>565</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>584</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>luo_2024_2</t>
+  </si>
+  <si>
+    <t>K. Luo and X. Kong and J. Li and J. Hu and L. Deng</t>
+  </si>
+  <si>
+    <t>10.1016/j.ymssp.2024.111681</t>
+  </si>
+  <si>
+    <t>{Motion magnification for video-based vibration measurement of civil structures: A review}</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t> 107742</t>
+  </si>
+  <si>
+    <t>patil_2018</t>
+  </si>
+  <si>
+    <t>K. Patil and V. Srivastava and J. Baqersad</t>
+  </si>
+  <si>
+    <t>10.1016/j.measurement.2018.02.059</t>
+  </si>
+  <si>
+    <t>358-367</t>
+  </si>
+  <si>
+    <t>{A multi-view optical technique to obtain mode shapes of structures}</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>tang_2019</t>
+  </si>
+  <si>
+    <t>C. Tang and P. Tan</t>
+  </si>
+  <si>
+    <t>1-18</t>
+  </si>
+  <si>
+    <t>{BA-Net: Dense Bundle Adjustment Networks}</t>
+  </si>
+  <si>
+    <t>10.48550/arXiv.1806.04807</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>International Conference on Learning Representations</t>
+  </si>
+  <si>
+    <t>New Orleans, LA, USA</t>
+  </si>
+  <si>
+    <t>K. Genovese and L. Casaletto and J. A. Rayas and V. Flores and A. Martinez</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4018,6 +4414,8 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <b/>
@@ -4026,8 +4424,16 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4043,6 +4449,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4074,7 +4486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4097,6 +4509,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Navadno" xfId="0" builtinId="0"/>
@@ -4399,10 +4816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I160"/>
+  <dimension ref="A1:I183"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4416,7 +4833,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4448,7 +4865,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>14</v>
@@ -4475,7 +4892,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
@@ -4502,7 +4919,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>29</v>
@@ -4529,7 +4946,7 @@
         <v>35</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>36</v>
@@ -4558,7 +4975,7 @@
         <v>43</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>44</v>
@@ -4585,7 +5002,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>51</v>
@@ -4612,7 +5029,7 @@
         <v>57</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>58</v>
@@ -4641,7 +5058,7 @@
         <v>64</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>65</v>
@@ -4670,16 +5087,16 @@
         <v>72</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>73</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>74</v>
@@ -4724,7 +5141,7 @@
         <v>83</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>84</v>
@@ -4753,7 +5170,7 @@
         <v>90</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>91</v>
@@ -4811,7 +5228,7 @@
         <v>105</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>106</v>
@@ -4840,7 +5257,7 @@
         <v>113</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>114</v>
@@ -4867,10 +5284,10 @@
         <v>119</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>120</v>
@@ -4896,10 +5313,10 @@
         <v>125</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>126</v>
@@ -4923,7 +5340,7 @@
         <v>130</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>131</v>
@@ -4979,7 +5396,7 @@
         <v>144</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>145</v>
@@ -5008,7 +5425,7 @@
         <v>149</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>150</v>
@@ -5037,7 +5454,7 @@
         <v>156</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>157</v>
@@ -5066,7 +5483,7 @@
         <v>160</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>161</v>
@@ -5122,7 +5539,7 @@
         <v>178</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>179</v>
@@ -5149,7 +5566,7 @@
         <v>183</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>184</v>
@@ -5178,7 +5595,7 @@
         <v>187</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>188</v>
@@ -5205,7 +5622,7 @@
         <v>193</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>194</v>
@@ -5234,10 +5651,10 @@
         <v>198</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>15</v>
@@ -5302,7 +5719,7 @@
         <v>212</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>213</v>
@@ -5346,16 +5763,16 @@
         <v>221</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>169</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>222</v>
@@ -5373,7 +5790,7 @@
         <v>224</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>225</v>
@@ -5429,7 +5846,7 @@
         <v>235</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>236</v>
@@ -5458,7 +5875,7 @@
         <v>240</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>241</v>
@@ -5514,10 +5931,10 @@
         <v>253</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>964</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>965</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>966</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>254</v>
@@ -5567,13 +5984,13 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>966</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>967</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>968</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>15</v>
@@ -5600,7 +6017,7 @@
         <v>265</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>30</v>
@@ -5626,7 +6043,7 @@
         <v>273</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>274</v>
@@ -5635,7 +6052,7 @@
         <v>275</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>276</v>
@@ -5653,7 +6070,7 @@
         <v>277</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>278</v>
@@ -5680,7 +6097,7 @@
         <v>282</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>283</v>
@@ -5709,7 +6126,7 @@
         <v>286</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>287</v>
@@ -5741,7 +6158,7 @@
         <v>293</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>294</v>
@@ -5767,10 +6184,10 @@
         <v>302</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>303</v>
@@ -5796,7 +6213,7 @@
         <v>310</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7" t="s">
@@ -5821,10 +6238,10 @@
         <v>315</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>316</v>
@@ -5848,7 +6265,7 @@
         <v>319</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>320</v>
@@ -5877,10 +6294,10 @@
         <v>326</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>45</v>
@@ -5906,10 +6323,10 @@
         <v>330</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>331</v>
@@ -5933,10 +6350,10 @@
         <v>335</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>336</v>
@@ -5991,10 +6408,10 @@
         <v>348</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>349</v>
@@ -6020,7 +6437,7 @@
         <v>353</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>354</v>
@@ -6049,7 +6466,7 @@
         <v>365</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>366</v>
@@ -6105,10 +6522,10 @@
         <v>376</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>377</v>
@@ -6134,7 +6551,7 @@
         <v>382</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>383</v>
@@ -6219,7 +6636,7 @@
         <v>406</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>407</v>
@@ -6277,7 +6694,7 @@
         <v>424</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>425</v>
@@ -6306,7 +6723,7 @@
         <v>429</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>430</v>
@@ -6333,7 +6750,7 @@
         <v>433</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>434</v>
@@ -6362,7 +6779,7 @@
         <v>438</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>439</v>
@@ -6389,7 +6806,7 @@
         <v>444</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>445</v>
@@ -6476,7 +6893,7 @@
         <v>461</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>462</v>
@@ -6503,7 +6920,7 @@
         <v>466</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>467</v>
@@ -6532,7 +6949,7 @@
         <v>472</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>473</v>
@@ -6561,7 +6978,7 @@
         <v>476</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>477</v>
@@ -6588,7 +7005,7 @@
         <v>480</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>481</v>
@@ -6642,7 +7059,7 @@
         <v>490</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>491</v>
@@ -6671,7 +7088,7 @@
         <v>495</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>496</v>
@@ -6698,7 +7115,7 @@
         <v>499</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>500</v>
@@ -6725,7 +7142,7 @@
         <v>504</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>505</v>
@@ -6752,7 +7169,7 @@
         <v>509</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>510</v>
@@ -6781,7 +7198,7 @@
         <v>514</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>515</v>
@@ -6808,7 +7225,7 @@
         <v>519</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>520</v>
@@ -6891,7 +7308,7 @@
         <v>537</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>538</v>
@@ -6945,7 +7362,7 @@
         <v>548</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>549</v>
@@ -6972,7 +7389,7 @@
         <v>552</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>553</v>
@@ -6999,7 +7416,7 @@
         <v>556</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>557</v>
@@ -7026,7 +7443,7 @@
         <v>561</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>562</v>
@@ -7053,7 +7470,7 @@
         <v>566</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>567</v>
@@ -7107,7 +7524,7 @@
         <v>580</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>581</v>
@@ -7134,7 +7551,7 @@
         <v>585</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>586</v>
@@ -7161,7 +7578,7 @@
         <v>588</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>589</v>
@@ -7188,7 +7605,7 @@
         <v>593</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>594</v>
@@ -7242,7 +7659,7 @@
         <v>603</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>604</v>
@@ -7269,7 +7686,7 @@
         <v>610</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>611</v>
@@ -7296,7 +7713,7 @@
         <v>615</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>616</v>
@@ -7325,7 +7742,7 @@
         <v>621</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>622</v>
@@ -7352,7 +7769,7 @@
         <v>625</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>626</v>
@@ -7379,13 +7796,13 @@
         <v>631</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>632</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E107" s="8" t="s">
         <v>633</v>
@@ -7437,7 +7854,7 @@
         <v>642</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>643</v>
@@ -7466,7 +7883,7 @@
         <v>648</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>649</v>
@@ -7495,7 +7912,7 @@
         <v>652</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>653</v>
@@ -7524,7 +7941,7 @@
         <v>658</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>659</v>
@@ -7553,7 +7970,7 @@
         <v>663</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>664</v>
@@ -7582,7 +7999,7 @@
         <v>667</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>668</v>
@@ -7611,7 +8028,7 @@
         <v>672</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>673</v>
@@ -7640,7 +8057,7 @@
         <v>677</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="7" t="s">
@@ -7694,7 +8111,7 @@
         <v>690</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="7" t="s">
@@ -7719,7 +8136,7 @@
         <v>693</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>694</v>
@@ -7748,7 +8165,7 @@
         <v>698</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>699</v>
@@ -7775,7 +8192,7 @@
         <v>702</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>703</v>
@@ -7804,7 +8221,7 @@
         <v>707</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>708</v>
@@ -7833,7 +8250,7 @@
         <v>713</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>714</v>
@@ -7889,7 +8306,7 @@
         <v>723</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>724</v>
@@ -7916,7 +8333,7 @@
         <v>728</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>729</v>
@@ -7945,7 +8362,7 @@
         <v>732</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>733</v>
@@ -7974,10 +8391,10 @@
         <v>735</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>736</v>
@@ -8003,7 +8420,7 @@
         <v>740</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>741</v>
@@ -8032,7 +8449,7 @@
         <v>744</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>745</v>
@@ -8059,7 +8476,7 @@
         <v>750</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>751</v>
@@ -8086,7 +8503,7 @@
         <v>755</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>756</v>
@@ -8115,7 +8532,7 @@
         <v>763</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>764</v>
@@ -8173,10 +8590,10 @@
         <v>775</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D135" s="7" t="s">
         <v>169</v>
@@ -8202,16 +8619,16 @@
         <v>778</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D136" s="7" t="s">
         <v>138</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F136" s="7" t="s">
         <v>779</v>
@@ -8231,7 +8648,7 @@
         <v>780</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>781</v>
@@ -8258,7 +8675,7 @@
         <v>784</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>785</v>
@@ -8287,19 +8704,19 @@
         <v>790</v>
       </c>
       <c r="B139" s="7" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C139" s="7" t="s">
         <v>791</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>792</v>
       </c>
       <c r="D139" s="7" t="s">
         <v>115</v>
       </c>
       <c r="E139" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="F139" s="7" t="s">
         <v>793</v>
-      </c>
-      <c r="F139" s="7" t="s">
-        <v>794</v>
       </c>
       <c r="G139" s="8" t="s">
         <v>142</v>
@@ -8313,25 +8730,25 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="B140" s="7" t="s">
         <v>795</v>
       </c>
-      <c r="B140" s="7" t="s">
+      <c r="C140" s="7" t="s">
         <v>796</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>797</v>
       </c>
       <c r="D140" s="7" t="s">
         <v>138</v>
       </c>
       <c r="E140" s="8" t="s">
+        <v>797</v>
+      </c>
+      <c r="F140" s="7" t="s">
         <v>798</v>
       </c>
-      <c r="F140" s="7" t="s">
+      <c r="G140" s="8" t="s">
         <v>799</v>
-      </c>
-      <c r="G140" s="8" t="s">
-        <v>800</v>
       </c>
       <c r="H140" s="7" t="s">
         <v>96</v>
@@ -8342,25 +8759,25 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C141" s="7" t="s">
         <v>801</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>802</v>
       </c>
       <c r="D141" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E141" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="F141" s="7" t="s">
         <v>803</v>
       </c>
-      <c r="F141" s="7" t="s">
+      <c r="G141" s="8" t="s">
         <v>804</v>
-      </c>
-      <c r="G141" s="8" t="s">
-        <v>805</v>
       </c>
       <c r="H141" s="7" t="s">
         <v>20</v>
@@ -8369,13 +8786,13 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D142" s="7" t="s">
         <v>146</v>
@@ -8384,7 +8801,7 @@
         <v>1615</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G142" s="7" t="s">
         <v>110</v>
@@ -8398,22 +8815,22 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C143" s="4" t="s">
         <v>1159</v>
       </c>
-      <c r="B143" s="4" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C143" s="4" t="s">
+      <c r="D143" s="4" t="s">
         <v>1160</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>1161</v>
       </c>
       <c r="E143" s="5">
         <v>2726</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="G143" s="4" t="s">
         <v>583</v>
@@ -8427,13 +8844,13 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C144" s="4" t="s">
         <v>1163</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>1236</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>1164</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>15</v>
@@ -8442,37 +8859,37 @@
         <v>112387</v>
       </c>
       <c r="F144" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G144" s="4" t="s">
         <v>1165</v>
       </c>
-      <c r="G144" s="4" t="s">
+      <c r="H144" s="4" t="s">
         <v>1166</v>
-      </c>
-      <c r="H144" s="4" t="s">
-        <v>1167</v>
       </c>
       <c r="I144" s="4"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C145" s="4" t="s">
         <v>1168</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>1237</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>1169</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>527</v>
       </c>
       <c r="E145" s="5" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F145" s="4" t="s">
         <v>1170</v>
       </c>
-      <c r="F145" s="4" t="s">
+      <c r="G145" s="4" t="s">
         <v>1171</v>
-      </c>
-      <c r="G145" s="4" t="s">
-        <v>1172</v>
       </c>
       <c r="H145" s="4" t="s">
         <v>20</v>
@@ -8481,22 +8898,22 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B146" s="4" t="s">
         <v>1173</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="C146" s="4" t="s">
         <v>1174</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>1175</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>126</v>
       </c>
       <c r="E146" s="5" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F146" s="4" t="s">
         <v>1176</v>
-      </c>
-      <c r="F146" s="4" t="s">
-        <v>1177</v>
       </c>
       <c r="G146" s="4" t="s">
         <v>789</v>
@@ -8510,13 +8927,13 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C147" s="4" t="s">
         <v>1178</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>1238</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>1179</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>15</v>
@@ -8525,34 +8942,34 @@
         <v>112080</v>
       </c>
       <c r="F147" s="4" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G147" s="4" t="s">
         <v>1180</v>
       </c>
-      <c r="G147" s="4" t="s">
-        <v>1181</v>
-      </c>
       <c r="H147" s="4" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="I147" s="4"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C148" s="4" t="s">
         <v>1182</v>
       </c>
-      <c r="B148" s="4" t="s">
-        <v>1239</v>
-      </c>
-      <c r="C148" s="4" t="s">
+      <c r="D148" s="4" t="s">
         <v>1183</v>
       </c>
-      <c r="D148" s="4" t="s">
+      <c r="E148" s="5" t="s">
         <v>1184</v>
       </c>
-      <c r="E148" s="5" t="s">
+      <c r="F148" s="4" t="s">
         <v>1185</v>
-      </c>
-      <c r="F148" s="4" t="s">
-        <v>1186</v>
       </c>
       <c r="G148" s="4" t="s">
         <v>213</v>
@@ -8566,22 +8983,22 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C149" s="4" t="s">
         <v>1187</v>
       </c>
-      <c r="B149" s="4" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C149" s="4" t="s">
+      <c r="D149" s="4" t="s">
         <v>1188</v>
       </c>
-      <c r="D149" s="4" t="s">
+      <c r="E149" s="5" t="s">
         <v>1189</v>
       </c>
-      <c r="E149" s="5" t="s">
+      <c r="F149" s="4" t="s">
         <v>1190</v>
-      </c>
-      <c r="F149" s="4" t="s">
-        <v>1191</v>
       </c>
       <c r="G149" s="4" t="s">
         <v>101</v>
@@ -8595,22 +9012,22 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C150" s="4" t="s">
         <v>1192</v>
       </c>
-      <c r="B150" s="4" t="s">
-        <v>1241</v>
-      </c>
-      <c r="C150" s="4" t="s">
+      <c r="D150" s="4" t="s">
         <v>1193</v>
       </c>
-      <c r="D150" s="4" t="s">
+      <c r="E150" s="5" t="s">
         <v>1194</v>
       </c>
-      <c r="E150" s="5" t="s">
+      <c r="F150" s="4" t="s">
         <v>1195</v>
-      </c>
-      <c r="F150" s="4" t="s">
-        <v>1196</v>
       </c>
       <c r="G150" s="4" t="s">
         <v>148</v>
@@ -8624,25 +9041,25 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B151" s="4" t="s">
         <v>1202</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="C151" s="4" t="s">
         <v>1203</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>1204</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>138</v>
       </c>
       <c r="E151" s="5" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F151" s="4" t="s">
         <v>1205</v>
       </c>
-      <c r="F151" s="4" t="s">
-        <v>1206</v>
-      </c>
       <c r="G151" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H151" s="4" t="s">
         <v>96</v>
@@ -8653,22 +9070,22 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C152" s="4" t="s">
         <v>1207</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>1242</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>1208</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>316</v>
       </c>
       <c r="E152" s="5" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F152" s="4" t="s">
         <v>1209</v>
-      </c>
-      <c r="F152" s="4" t="s">
-        <v>1210</v>
       </c>
       <c r="G152" s="4" t="s">
         <v>513</v>
@@ -8680,22 +9097,22 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C153" s="4" t="s">
         <v>1211</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>1212</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E153" s="5" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F153" s="4" t="s">
         <v>1213</v>
-      </c>
-      <c r="F153" s="4" t="s">
-        <v>1214</v>
       </c>
       <c r="G153" s="4" t="s">
         <v>513</v>
@@ -8709,25 +9126,25 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C154" s="4" t="s">
         <v>1215</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>1244</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>1216</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>169</v>
       </c>
       <c r="E154" s="5" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F154" s="4" t="s">
         <v>1217</v>
       </c>
-      <c r="F154" s="4" t="s">
+      <c r="G154" s="4" t="s">
         <v>1218</v>
-      </c>
-      <c r="G154" s="4" t="s">
-        <v>1219</v>
       </c>
       <c r="H154" s="4" t="s">
         <v>471</v>
@@ -8738,22 +9155,22 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C155" s="4" t="s">
         <v>1220</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>1245</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>1221</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>169</v>
       </c>
       <c r="E155" s="5" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F155" s="4" t="s">
         <v>1222</v>
-      </c>
-      <c r="F155" s="4" t="s">
-        <v>1223</v>
       </c>
       <c r="G155" s="4" t="s">
         <v>583</v>
@@ -8765,25 +9182,25 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C156" s="4" t="s">
         <v>1224</v>
       </c>
-      <c r="B156" s="4" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C156" s="4" t="s">
+      <c r="D156" s="4" t="s">
         <v>1225</v>
       </c>
-      <c r="D156" s="4" t="s">
+      <c r="E156" s="5" t="s">
         <v>1226</v>
       </c>
-      <c r="E156" s="5" t="s">
+      <c r="F156" s="4" t="s">
         <v>1227</v>
       </c>
-      <c r="F156" s="4" t="s">
+      <c r="G156" s="4" t="s">
         <v>1228</v>
-      </c>
-      <c r="G156" s="4" t="s">
-        <v>1229</v>
       </c>
       <c r="H156" s="4" t="s">
         <v>89</v>
@@ -8792,25 +9209,25 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C157" s="4" t="s">
         <v>1230</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>1247</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>1231</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>695</v>
       </c>
       <c r="E157" s="5" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F157" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="F157" s="4" t="s">
+      <c r="G157" s="4" t="s">
         <v>1233</v>
-      </c>
-      <c r="G157" s="4" t="s">
-        <v>1234</v>
       </c>
       <c r="H157" s="4" t="s">
         <v>118</v>
@@ -8845,7 +9262,7 @@
         <v>608</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
@@ -8860,7 +9277,666 @@
       <c r="I159" s="7"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B160" s="2"/>
+      <c r="A160" s="12" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B160" s="13" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C160" s="13" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D160" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E160" s="13" t="s">
+        <v>1442</v>
+      </c>
+      <c r="F160" s="13" t="s">
+        <v>1397</v>
+      </c>
+      <c r="G160" s="13" t="s">
+        <v>1418</v>
+      </c>
+      <c r="H160" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I160" s="13"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="12" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B161" s="13" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C161" s="13" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D161" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="E161" s="13" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F161" s="13" t="s">
+        <v>1398</v>
+      </c>
+      <c r="G161" s="13" t="s">
+        <v>1419</v>
+      </c>
+      <c r="H161" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I161" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="12" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B162" s="13" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C162" s="13" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D162" s="13" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E162" s="13" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F162" s="13" t="s">
+        <v>1399</v>
+      </c>
+      <c r="G162" s="13" t="s">
+        <v>1420</v>
+      </c>
+      <c r="H162" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I162" s="13"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="12" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B163" s="13" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C163" s="13" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D163" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E163" s="13">
+        <v>110044</v>
+      </c>
+      <c r="F163" s="13" t="s">
+        <v>1400</v>
+      </c>
+      <c r="G163" s="13" t="s">
+        <v>1421</v>
+      </c>
+      <c r="H163" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="I163" s="13"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="12" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B164" s="13" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C164" s="13" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D164" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E164" s="13">
+        <v>111148</v>
+      </c>
+      <c r="F164" s="13" t="s">
+        <v>1401</v>
+      </c>
+      <c r="G164" s="13" t="s">
+        <v>1422</v>
+      </c>
+      <c r="H164" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="I164" s="13"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" s="12" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B165" s="13" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C165" s="13" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D165" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="E165" s="13">
+        <v>116567</v>
+      </c>
+      <c r="F165" s="13" t="s">
+        <v>1402</v>
+      </c>
+      <c r="G165" s="13" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H165" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="I165" s="13"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" s="12" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B166" s="13" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C166" s="13" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D166" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="E166" s="14">
+        <v>116426</v>
+      </c>
+      <c r="F166" s="13" t="s">
+        <v>1403</v>
+      </c>
+      <c r="G166" s="13" t="s">
+        <v>1424</v>
+      </c>
+      <c r="H166" s="13" t="s">
+        <v>1166</v>
+      </c>
+      <c r="I166" s="13"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" s="12" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B167" s="13" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C167" s="13" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D167" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="E167" s="13">
+        <v>116909</v>
+      </c>
+      <c r="F167" s="13" t="s">
+        <v>1404</v>
+      </c>
+      <c r="G167" s="13" t="s">
+        <v>1425</v>
+      </c>
+      <c r="H167" s="13" t="s">
+        <v>1166</v>
+      </c>
+      <c r="I167" s="13"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" s="12" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B168" s="13" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C168" s="13" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D168" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E168" s="13">
+        <v>117540</v>
+      </c>
+      <c r="F168" s="13" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G168" s="13" t="s">
+        <v>1426</v>
+      </c>
+      <c r="H168" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="I168" s="13"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="12" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B169" s="13" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C169" s="13" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D169" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E169" s="13">
+        <v>117904</v>
+      </c>
+      <c r="F169" s="13" t="s">
+        <v>1406</v>
+      </c>
+      <c r="G169" s="13" t="s">
+        <v>1427</v>
+      </c>
+      <c r="H169" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="I169" s="13"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" s="12" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B170" s="13" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C170" s="13" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D170" s="13" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E170" s="13">
+        <v>20230136</v>
+      </c>
+      <c r="F170" s="13" t="s">
+        <v>1407</v>
+      </c>
+      <c r="G170" s="13" t="s">
+        <v>1428</v>
+      </c>
+      <c r="H170" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="I170" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="B171" s="13" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C171" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="D171" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E171" s="13">
+        <v>109553</v>
+      </c>
+      <c r="F171" s="13" t="s">
+        <v>569</v>
+      </c>
+      <c r="G171" s="13" t="s">
+        <v>570</v>
+      </c>
+      <c r="H171" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="I171" s="13"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" s="12" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B172" s="13" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C172" s="13" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D172" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="E172" s="13">
+        <v>112567</v>
+      </c>
+      <c r="F172" s="13" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G172" s="13" t="s">
+        <v>1429</v>
+      </c>
+      <c r="H172" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="I172" s="13"/>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" s="12" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B173" s="13" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C173" s="13" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D173" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E173" s="13" t="str">
+        <f>RIGHT(C173,6)</f>
+        <v>110763</v>
+      </c>
+      <c r="F173" s="13" t="s">
+        <v>1409</v>
+      </c>
+      <c r="G173" s="13" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H173" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="I173" s="13"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" s="12" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B174" s="13" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C174" s="13" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D174" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E174" s="13" t="str">
+        <f t="shared" ref="E174:E182" si="0">RIGHT(C174,6)</f>
+        <v>112400</v>
+      </c>
+      <c r="F174" s="13" t="s">
+        <v>1410</v>
+      </c>
+      <c r="G174" s="13" t="s">
+        <v>1165</v>
+      </c>
+      <c r="H174" s="13" t="s">
+        <v>1166</v>
+      </c>
+      <c r="I174" s="13"/>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" s="12" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B175" s="13" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C175" s="13" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D175" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E175" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>110418</v>
+      </c>
+      <c r="F175" s="13" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G175" s="13" t="s">
+        <v>1431</v>
+      </c>
+      <c r="H175" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="I175" s="13"/>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" s="12" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B176" s="13" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C176" s="13" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D176" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E176" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>112746</v>
+      </c>
+      <c r="F176" s="13" t="s">
+        <v>1412</v>
+      </c>
+      <c r="G176" s="13" t="s">
+        <v>1432</v>
+      </c>
+      <c r="H176" s="13" t="s">
+        <v>1166</v>
+      </c>
+      <c r="I176" s="13"/>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" s="12" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B177" s="13" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C177" s="13" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D177" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E177" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>112324</v>
+      </c>
+      <c r="F177" s="13" t="s">
+        <v>1413</v>
+      </c>
+      <c r="G177" s="13" t="s">
+        <v>1433</v>
+      </c>
+      <c r="H177" s="13" t="s">
+        <v>1166</v>
+      </c>
+      <c r="I177" s="13"/>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" s="12" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B178" s="13" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C178" s="13" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D178" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E178" s="13" t="str">
+        <f>RIGHT(C178,6)</f>
+        <v>118140</v>
+      </c>
+      <c r="F178" s="13" t="s">
+        <v>1414</v>
+      </c>
+      <c r="G178" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="H178" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="I178" s="13"/>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" s="12" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B179" s="13" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C179" s="13" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D179" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="E179" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>115559</v>
+      </c>
+      <c r="F179" s="13" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G179" s="13" t="s">
+        <v>1434</v>
+      </c>
+      <c r="H179" s="13" t="s">
+        <v>1166</v>
+      </c>
+      <c r="I179" s="13"/>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" s="12" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B180" s="13" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C180" s="13" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D180" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E180" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>118478</v>
+      </c>
+      <c r="F180" s="13" t="s">
+        <v>1416</v>
+      </c>
+      <c r="G180" s="13" t="s">
+        <v>1435</v>
+      </c>
+      <c r="H180" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="I180" s="13"/>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" s="12" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B181" s="13" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C181" s="13" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D181" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E181" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>112321</v>
+      </c>
+      <c r="F181" s="13" t="s">
+        <v>1417</v>
+      </c>
+      <c r="G181" s="13" t="s">
+        <v>1436</v>
+      </c>
+      <c r="H181" s="13" t="s">
+        <v>1166</v>
+      </c>
+      <c r="I181" s="13"/>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" s="12" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B182" s="13" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C182" s="13" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D182" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E182" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>111681</v>
+      </c>
+      <c r="F182" s="13" t="s">
+        <v>1440</v>
+      </c>
+      <c r="G182" s="13" t="s">
+        <v>1441</v>
+      </c>
+      <c r="H182" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="I182" s="13"/>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" s="12" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B183" s="13" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C183" s="13" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D183" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="E183" s="13" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F183" s="13" t="s">
+        <v>1447</v>
+      </c>
+      <c r="G183" s="13" t="s">
+        <v>1448</v>
+      </c>
+      <c r="H183" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I183" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8872,8 +9948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8890,7 +9966,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -8911,7 +9987,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>12</v>
@@ -8919,416 +9995,416 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>492</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>56</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="G2" s="8">
         <v>5</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>811</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>812</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>70</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G3" s="8">
         <v>10</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>435</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>192</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="G4" s="8">
         <v>4</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>820</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>821</v>
       </c>
       <c r="C5" s="8">
         <v>72460</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>70</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>827</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>828</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="G6" s="10">
         <v>6</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>830</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>831</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>832</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>96</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G7" s="10">
         <v>7</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>836</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>837</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>155</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="G8" s="10">
         <v>6</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>839</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>840</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>841</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>842</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>843</v>
       </c>
       <c r="G9" s="10">
         <v>3</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>846</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>847</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>579</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G10" s="10">
         <v>5</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>851</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>852</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="7" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
+        <v>853</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>854</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>855</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>856</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>857</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G12" s="10">
         <v>10</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>435</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>56</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G13" s="10">
         <v>6</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
+        <v>863</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>864</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>865</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>866</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G14" s="8">
         <v>10</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
+        <v>868</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>869</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>870</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>871</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>443</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="G15" s="10">
         <v>6</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>301</v>
@@ -9338,184 +10414,184 @@
         <v>2</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>877</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>878</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>879</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>62</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G17" s="10">
         <v>6</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
+        <v>881</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>882</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>883</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>884</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>172</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G18" s="10">
         <v>6</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>887</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>888</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>889</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G19" s="10">
         <v>6</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C20" s="8">
         <v>13</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>96</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="G20" s="10">
         <v>9</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>896</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>897</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>898</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>607</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>55</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>901</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C22" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>902</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>903</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="F22" s="7" t="s">
         <v>904</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>905</v>
       </c>
       <c r="G22" s="10">
         <v>9</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -9523,7 +10599,7 @@
         <v>759</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>761</v>
@@ -9535,7 +10611,7 @@
         <v>387</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>38</v>
@@ -9544,7 +10620,7 @@
         <v>760</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -9552,7 +10628,7 @@
         <v>575</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>577</v>
@@ -9564,7 +10640,7 @@
         <v>579</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="7" t="s">
@@ -9583,7 +10659,7 @@
         <v>397</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>398</v>
@@ -9596,7 +10672,7 @@
         <v>396</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -9604,7 +10680,7 @@
         <v>358</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="7" t="s">
@@ -9625,7 +10701,7 @@
         <v>361</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>363</v>
@@ -9637,7 +10713,7 @@
         <v>352</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>38</v>
@@ -9646,7 +10722,7 @@
         <v>362</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -9654,10 +10730,10 @@
         <v>307</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>309</v>
@@ -9673,7 +10749,7 @@
         <v>308</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -9681,10 +10757,10 @@
         <v>298</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>300</v>
@@ -9700,7 +10776,7 @@
         <v>299</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -9708,7 +10784,7 @@
         <v>269</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="7" t="s">
@@ -9725,7 +10801,7 @@
         <v>270</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -9733,7 +10809,7 @@
         <v>173</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>175</v>
@@ -9752,50 +10828,50 @@
         <v>174</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>387</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>38</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>471</v>
@@ -9805,326 +10881,355 @@
         <v>63</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>325</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>143</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>38</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>96</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>86</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>607</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>38</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>607</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>38</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>607</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>325</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>301</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>139</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>31</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>38</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>252</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>325</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>1197</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>1198</v>
-      </c>
       <c r="C44" s="5" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>1200</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>1201</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>306</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>1455</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>1456</v>
+      </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G46" s="2"/>
@@ -10139,10 +11244,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10157,7 +11262,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -10166,7 +11271,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -10180,22 +11285,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>101</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>908</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>909</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>910</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>27</v>
@@ -10203,22 +11308,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>71</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>912</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>913</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>124</v>
@@ -10226,22 +11331,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D4" s="8">
         <v>3</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>914</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>915</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>916</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>111</v>
@@ -10249,22 +11354,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>916</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>917</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>918</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>71</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>918</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>919</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>920</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>352</v>
@@ -10272,22 +11377,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>920</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>921</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>922</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>923</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>924</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>297</v>
@@ -10295,22 +11400,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>71</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>925</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>926</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>927</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>387</v>
@@ -10318,22 +11423,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>63</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>929</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>930</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>155</v>
@@ -10341,25 +11446,48 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>71</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>932</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>933</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>1326</v>
+      </c>
+      <c r="G10" s="8">
+        <v>2003</v>
       </c>
     </row>
   </sheetData>
@@ -10402,7 +11530,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>9</v>
@@ -10414,10 +11542,10 @@
         <v>1</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>935</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>936</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>3</v>
@@ -10425,28 +11553,28 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>937</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>938</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>939</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>192</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>939</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>940</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>941</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>942</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>943</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -10456,13 +11584,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>943</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>944</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>945</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>946</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>387</v>
@@ -10471,10 +11599,10 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -10483,13 +11611,13 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>947</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>948</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>949</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>950</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>27</v>
@@ -10498,19 +11626,19 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="I4" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>951</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>952</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>953</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>325</v>
@@ -10546,7 +11674,7 @@
         <v>608</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>609</v>
